--- a/data/list_meps_2019.xlsx
+++ b/data/list_meps_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OwnCloud\SH\Projekte\Netzwerkanalyse Twitter MEPs\2019_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OwnCloud\SH\Projekte\Netzwerkanalyse Twitter MEPs\twitter_network_ep19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="1623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1622">
   <si>
     <t>name</t>
   </si>
@@ -2133,9 +2133,6 @@
     <t>Antony HOOK</t>
   </si>
   <si>
-    <t>antonyhook</t>
-  </si>
-  <si>
     <t>Brice HORTEFEUX</t>
   </si>
   <si>
@@ -2229,9 +2226,6 @@
     <t>Jean-François JALKH</t>
   </si>
   <si>
-    <t>JFJalkh</t>
-  </si>
-  <si>
     <t>France JAMET</t>
   </si>
   <si>
@@ -4668,9 +4662,6 @@
     <t>JackieJonesWal1</t>
   </si>
   <si>
-    <t>rjukneviciene</t>
-  </si>
-  <si>
     <t>Karol KARSKI</t>
   </si>
   <si>
@@ -4692,18 +4683,9 @@
     <t>Kympouropoulos</t>
   </si>
   <si>
-    <t>katrinlangensie</t>
-  </si>
-  <si>
-    <t>helenelaportern</t>
-  </si>
-  <si>
     <t>Ryszard Antoni LEGUTKO</t>
   </si>
   <si>
-    <t>mariamanuellm</t>
-  </si>
-  <si>
     <t>BLiberadzki</t>
   </si>
   <si>
@@ -4794,18 +4776,9 @@
     <t>rooken</t>
   </si>
   <si>
-    <t>rob_roos</t>
-  </si>
-  <si>
-    <t>bogdan_rzonca</t>
-  </si>
-  <si>
     <t>Andreas SCHIEDER</t>
   </si>
   <si>
-    <t>schieder</t>
-  </si>
-  <si>
     <t>sikorskiradek</t>
   </si>
   <si>
@@ -4869,9 +4842,6 @@
     <t>WaszczykowskiW</t>
   </si>
   <si>
-    <t>jamesfwells</t>
-  </si>
-  <si>
     <t>j_wisniewska</t>
   </si>
   <si>
@@ -4888,6 +4858,33 @@
   </si>
   <si>
     <t>ZovkoEU</t>
+  </si>
+  <si>
+    <t>favershamfocus</t>
+  </si>
+  <si>
+    <t>RJukneviciene</t>
+  </si>
+  <si>
+    <t>HeleneLaporteRN</t>
+  </si>
+  <si>
+    <t>MariaManuelLM</t>
+  </si>
+  <si>
+    <t>Rob_Roos</t>
+  </si>
+  <si>
+    <t>Bogdan_Rzonca</t>
+  </si>
+  <si>
+    <t>SCHIEDER</t>
+  </si>
+  <si>
+    <t>JamesfWells</t>
+  </si>
+  <si>
+    <t>isabel_mep</t>
   </si>
 </sst>
 </file>
@@ -5738,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5756,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5773,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -6205,7 +6202,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -6304,7 +6301,7 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -6372,7 +6369,7 @@
         <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -6434,10 +6431,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B43" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -6454,7 +6451,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
@@ -6703,7 +6700,7 @@
         <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -6737,7 +6734,7 @@
         <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -6788,7 +6785,7 @@
         <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -6836,7 +6833,7 @@
         <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -6904,7 +6901,7 @@
         <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -6938,7 +6935,7 @@
         <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -7116,7 +7113,7 @@
         <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -7232,7 +7229,7 @@
         <v>249</v>
       </c>
       <c r="B91" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C91" t="s">
         <v>44</v>
@@ -7348,7 +7345,7 @@
         <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -7591,10 +7588,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B113" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -7730,7 +7727,7 @@
         <v>313</v>
       </c>
       <c r="B121" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -7999,7 +7996,7 @@
         <v>348</v>
       </c>
       <c r="B137" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C137" t="s">
         <v>44</v>
@@ -8395,7 +8392,7 @@
         <v>401</v>
       </c>
       <c r="B161" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -8446,7 +8443,7 @@
         <v>406</v>
       </c>
       <c r="B164" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -8463,7 +8460,7 @@
         <v>407</v>
       </c>
       <c r="B165" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -8777,7 +8774,7 @@
         <v>444</v>
       </c>
       <c r="B184" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -8879,7 +8876,7 @@
         <v>457</v>
       </c>
       <c r="B190" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -8941,7 +8938,7 @@
         <v>462</v>
       </c>
       <c r="B194" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -8958,7 +8955,7 @@
         <v>464</v>
       </c>
       <c r="B195" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -9306,7 +9303,7 @@
         <v>508</v>
       </c>
       <c r="B216" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C216" t="s">
         <v>22</v>
@@ -9340,7 +9337,7 @@
         <v>511</v>
       </c>
       <c r="B218" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C218" t="s">
         <v>63</v>
@@ -9391,7 +9388,7 @@
         <v>518</v>
       </c>
       <c r="B221" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -9677,7 +9674,7 @@
         <v>554</v>
       </c>
       <c r="B238" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -9708,10 +9705,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B240" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
@@ -9762,7 +9759,7 @@
         <v>562</v>
       </c>
       <c r="B243" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C243" t="s">
         <v>22</v>
@@ -9926,7 +9923,7 @@
         <v>579</v>
       </c>
       <c r="B253" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
@@ -9942,9 +9939,6 @@
       <c r="A254" t="s">
         <v>580</v>
       </c>
-      <c r="B254" t="s">
-        <v>855</v>
-      </c>
       <c r="C254" t="s">
         <v>63</v>
       </c>
@@ -10022,7 +10016,7 @@
         <v>590</v>
       </c>
       <c r="B259" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C259" t="s">
         <v>44</v>
@@ -10118,7 +10112,7 @@
         <v>599</v>
       </c>
       <c r="B265" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C265" t="s">
         <v>44</v>
@@ -10220,7 +10214,7 @@
         <v>613</v>
       </c>
       <c r="B271" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C271" t="s">
         <v>18</v>
@@ -10254,7 +10248,7 @@
         <v>616</v>
       </c>
       <c r="B273" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C273" t="s">
         <v>34</v>
@@ -10305,7 +10299,7 @@
         <v>622</v>
       </c>
       <c r="B276" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C276" t="s">
         <v>44</v>
@@ -10531,7 +10525,7 @@
         <v>649</v>
       </c>
       <c r="B290" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C290" t="s">
         <v>34</v>
@@ -10562,7 +10556,7 @@
         <v>652</v>
       </c>
       <c r="B292" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
@@ -10760,7 +10754,7 @@
         <v>679</v>
       </c>
       <c r="B304" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C304" t="s">
         <v>22</v>
@@ -10935,7 +10929,7 @@
         <v>702</v>
       </c>
       <c r="B315" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C315" t="s">
         <v>22</v>
@@ -10952,7 +10946,7 @@
         <v>703</v>
       </c>
       <c r="B316" t="s">
-        <v>704</v>
+        <v>1613</v>
       </c>
       <c r="C316" t="s">
         <v>44</v>
@@ -10966,10 +10960,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>704</v>
+      </c>
+      <c r="B317" t="s">
         <v>705</v>
-      </c>
-      <c r="B317" t="s">
-        <v>706</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -10983,10 +10977,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
+        <v>706</v>
+      </c>
+      <c r="B318" t="s">
         <v>707</v>
-      </c>
-      <c r="B318" t="s">
-        <v>708</v>
       </c>
       <c r="C318" t="s">
         <v>44</v>
@@ -11000,10 +10994,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>708</v>
+      </c>
+      <c r="B319" t="s">
         <v>709</v>
-      </c>
-      <c r="B319" t="s">
-        <v>710</v>
       </c>
       <c r="C319" t="s">
         <v>22</v>
@@ -11017,13 +11011,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C320" t="s">
         <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E320" t="s">
         <v>9</v>
@@ -11031,10 +11025,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>712</v>
+      </c>
+      <c r="B321" t="s">
         <v>713</v>
-      </c>
-      <c r="B321" t="s">
-        <v>714</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -11048,10 +11042,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>714</v>
+      </c>
+      <c r="B322" t="s">
         <v>715</v>
-      </c>
-      <c r="B322" t="s">
-        <v>716</v>
       </c>
       <c r="C322" t="s">
         <v>18</v>
@@ -11065,10 +11059,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>716</v>
+      </c>
+      <c r="B323" t="s">
         <v>717</v>
-      </c>
-      <c r="B323" t="s">
-        <v>718</v>
       </c>
       <c r="C323" t="s">
         <v>44</v>
@@ -11082,16 +11076,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B324" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C324" t="s">
         <v>44</v>
       </c>
       <c r="D324" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E324" t="s">
         <v>56</v>
@@ -11099,10 +11093,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B325" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C325" t="s">
         <v>22</v>
@@ -11116,16 +11110,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B326" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C326" t="s">
         <v>44</v>
       </c>
       <c r="D326" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E326" t="s">
         <v>123</v>
@@ -11133,10 +11127,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>725</v>
+      </c>
+      <c r="B327" t="s">
         <v>726</v>
-      </c>
-      <c r="B327" t="s">
-        <v>727</v>
       </c>
       <c r="C327" t="s">
         <v>34</v>
@@ -11150,10 +11144,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>727</v>
+      </c>
+      <c r="B328" t="s">
         <v>728</v>
-      </c>
-      <c r="B328" t="s">
-        <v>729</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -11167,13 +11161,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C329" t="s">
         <v>34</v>
       </c>
       <c r="D329" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E329" t="s">
         <v>117</v>
@@ -11181,16 +11175,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B330" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C330" t="s">
         <v>27</v>
       </c>
       <c r="D330" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E330" t="s">
         <v>5</v>
@@ -11198,10 +11192,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>735</v>
-      </c>
-      <c r="B331" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C331" t="s">
         <v>18</v>
@@ -11215,10 +11206,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B332" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C332" t="s">
         <v>18</v>
@@ -11232,10 +11223,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B333" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -11249,10 +11240,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B334" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C334" t="s">
         <v>6</v>
@@ -11266,10 +11257,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B335" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C335" t="s">
         <v>22</v>
@@ -11283,10 +11274,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B336" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C336" t="s">
         <v>22</v>
@@ -11300,7 +11291,7 @@
     </row>
     <row r="337" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>14</v>
@@ -11314,10 +11305,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B338" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C338" t="s">
         <v>18</v>
@@ -11331,10 +11322,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B339" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C339" t="s">
         <v>44</v>
@@ -11348,16 +11339,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B340" t="s">
-        <v>1549</v>
+        <v>1614</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
       </c>
       <c r="D340" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E340" t="s">
         <v>117</v>
@@ -11365,10 +11356,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B341" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C341" t="s">
         <v>27</v>
@@ -11382,10 +11373,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B342" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C342" t="s">
         <v>27</v>
@@ -11399,10 +11390,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B343" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C343" t="s">
         <v>18</v>
@@ -11416,16 +11407,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>757</v>
+      </c>
+      <c r="B344" t="s">
         <v>759</v>
-      </c>
-      <c r="B344" t="s">
-        <v>761</v>
       </c>
       <c r="C344" t="s">
         <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E344" t="s">
         <v>75</v>
@@ -11433,7 +11424,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -11447,16 +11438,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>761</v>
+      </c>
+      <c r="B346" t="s">
         <v>763</v>
-      </c>
-      <c r="B346" t="s">
-        <v>765</v>
       </c>
       <c r="C346" t="s">
         <v>22</v>
       </c>
       <c r="D346" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E346" t="s">
         <v>83</v>
@@ -11464,16 +11455,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
+        <v>764</v>
+      </c>
+      <c r="B347" t="s">
         <v>766</v>
-      </c>
-      <c r="B347" t="s">
-        <v>768</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
       </c>
       <c r="D347" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E347" t="s">
         <v>56</v>
@@ -11481,7 +11472,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C348" t="s">
         <v>22</v>
@@ -11495,16 +11486,16 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
+        <v>768</v>
+      </c>
+      <c r="B349" t="s">
         <v>770</v>
-      </c>
-      <c r="B349" t="s">
-        <v>772</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
       </c>
       <c r="D349" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E349" t="s">
         <v>9</v>
@@ -11512,10 +11503,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B350" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C350" t="s">
         <v>27</v>
@@ -11529,10 +11520,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B351" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C351" t="s">
         <v>6</v>
@@ -11546,10 +11537,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B352" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C352" t="s">
         <v>44</v>
@@ -11563,16 +11554,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>777</v>
+      </c>
+      <c r="B353" t="s">
         <v>779</v>
-      </c>
-      <c r="B353" t="s">
-        <v>781</v>
       </c>
       <c r="C353" t="s">
         <v>44</v>
       </c>
       <c r="D353" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E353" t="s">
         <v>50</v>
@@ -11580,10 +11571,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B354" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -11597,16 +11588,16 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
+        <v>780</v>
+      </c>
+      <c r="B355" t="s">
         <v>782</v>
-      </c>
-      <c r="B355" t="s">
-        <v>784</v>
       </c>
       <c r="C355" t="s">
         <v>44</v>
       </c>
       <c r="D355" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E355" t="s">
         <v>654</v>
@@ -11614,10 +11605,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B356" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -11631,16 +11622,16 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>785</v>
+      </c>
+      <c r="B357" t="s">
         <v>787</v>
-      </c>
-      <c r="B357" t="s">
-        <v>789</v>
       </c>
       <c r="C357" t="s">
         <v>44</v>
       </c>
       <c r="D357" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E357" t="s">
         <v>310</v>
@@ -11648,16 +11639,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>788</v>
+      </c>
+      <c r="B358" t="s">
         <v>790</v>
-      </c>
-      <c r="B358" t="s">
-        <v>792</v>
       </c>
       <c r="C358" t="s">
         <v>44</v>
       </c>
       <c r="D358" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E358" t="s">
         <v>40</v>
@@ -11665,10 +11656,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B359" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C359" t="s">
         <v>34</v>
@@ -11682,10 +11673,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B360" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -11699,16 +11690,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B361" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C361" t="s">
         <v>27</v>
       </c>
       <c r="D361" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E361" t="s">
         <v>5</v>
@@ -11716,10 +11707,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B362" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C362" t="s">
         <v>22</v>
@@ -11733,10 +11724,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B363" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C363" t="s">
         <v>63</v>
@@ -11750,10 +11741,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B364" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C364" t="s">
         <v>27</v>
@@ -11767,7 +11758,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C365" t="s">
         <v>44</v>
@@ -11781,10 +11772,10 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B366" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C366" t="s">
         <v>22</v>
@@ -11798,16 +11789,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
+        <v>805</v>
+      </c>
+      <c r="B367" t="s">
         <v>807</v>
-      </c>
-      <c r="B367" t="s">
-        <v>809</v>
       </c>
       <c r="C367" t="s">
         <v>18</v>
       </c>
       <c r="D367" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E367" t="s">
         <v>113</v>
@@ -11815,10 +11806,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B368" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C368" t="s">
         <v>22</v>
@@ -11832,16 +11823,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
+        <v>809</v>
+      </c>
+      <c r="B369" t="s">
         <v>811</v>
-      </c>
-      <c r="B369" t="s">
-        <v>813</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E369" t="s">
         <v>50</v>
@@ -11849,10 +11840,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B370" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C370" t="s">
         <v>63</v>
@@ -11866,10 +11857,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B371" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C371" t="s">
         <v>34</v>
@@ -11883,13 +11874,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C372" t="s">
         <v>14</v>
       </c>
       <c r="D372" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E372" t="s">
         <v>243</v>
@@ -11897,13 +11888,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C373" t="s">
         <v>63</v>
       </c>
       <c r="D373" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E373" t="s">
         <v>219</v>
@@ -11911,13 +11902,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C374" t="s">
         <v>14</v>
       </c>
       <c r="D374" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E374" t="s">
         <v>75</v>
@@ -11925,10 +11916,10 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B375" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
@@ -11942,7 +11933,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C376" t="s">
         <v>27</v>
@@ -11956,10 +11947,10 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B377" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C377" t="s">
         <v>44</v>
@@ -11973,10 +11964,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B378" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -11990,7 +11981,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C379" t="s">
         <v>22</v>
@@ -12004,10 +11995,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B380" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C380" t="s">
         <v>63</v>
@@ -12021,10 +12012,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B381" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C381" t="s">
         <v>63</v>
@@ -12038,7 +12029,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C382" t="s">
         <v>44</v>
@@ -12052,10 +12043,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B383" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C383" t="s">
         <v>6</v>
@@ -12069,10 +12060,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B384" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C384" t="s">
         <v>18</v>
@@ -12086,10 +12077,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B385" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C385" t="s">
         <v>27</v>
@@ -12103,10 +12094,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B386" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C386" t="s">
         <v>22</v>
@@ -12120,7 +12111,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C387" t="s">
         <v>27</v>
@@ -12134,16 +12125,16 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B388" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
       </c>
       <c r="D388" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E388" t="s">
         <v>117</v>
@@ -12151,7 +12142,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C389" t="s">
         <v>34</v>
@@ -12165,10 +12156,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B390" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C390" t="s">
         <v>18</v>
@@ -12182,10 +12173,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B391" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C391" t="s">
         <v>22</v>
@@ -12199,10 +12190,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B392" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C392" t="s">
         <v>27</v>
@@ -12216,10 +12207,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B393" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -12233,10 +12224,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B394" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -12250,10 +12241,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B395" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C395" t="s">
         <v>44</v>
@@ -12267,10 +12258,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B396" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C396" t="s">
         <v>34</v>
@@ -12284,13 +12275,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C397" t="s">
         <v>14</v>
       </c>
       <c r="D397" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E397" t="s">
         <v>75</v>
@@ -12298,10 +12289,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B398" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C398" t="s">
         <v>22</v>
@@ -12315,10 +12306,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B399" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C399" t="s">
         <v>34</v>
@@ -12332,10 +12323,10 @@
     </row>
     <row r="400" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>18</v>
@@ -12349,10 +12340,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B401" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C401" t="s">
         <v>22</v>
@@ -12366,10 +12357,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B402" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -12383,10 +12374,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>871</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1557</v>
+        <v>869</v>
       </c>
       <c r="C403" t="s">
         <v>34</v>
@@ -12400,10 +12388,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B404" t="s">
-        <v>1558</v>
+        <v>1615</v>
       </c>
       <c r="C404" t="s">
         <v>18</v>
@@ -12417,16 +12405,16 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
+        <v>871</v>
+      </c>
+      <c r="B405" t="s">
         <v>873</v>
-      </c>
-      <c r="B405" t="s">
-        <v>875</v>
       </c>
       <c r="C405" t="s">
         <v>22</v>
       </c>
       <c r="D405" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E405" t="s">
         <v>40</v>
@@ -12434,10 +12422,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B406" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C406" t="s">
         <v>18</v>
@@ -12451,10 +12439,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B407" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C407" t="s">
         <v>18</v>
@@ -12468,16 +12456,16 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>878</v>
+      </c>
+      <c r="B408" t="s">
         <v>880</v>
-      </c>
-      <c r="B408" t="s">
-        <v>882</v>
       </c>
       <c r="C408" t="s">
         <v>6</v>
       </c>
       <c r="D408" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E408" t="s">
         <v>50</v>
@@ -12485,7 +12473,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -12499,10 +12487,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B410" t="s">
-        <v>1560</v>
+        <v>1616</v>
       </c>
       <c r="C410" t="s">
         <v>22</v>
@@ -12516,10 +12504,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B411" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C411" t="s">
         <v>6</v>
@@ -12533,10 +12521,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B412" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C412" t="s">
         <v>6</v>
@@ -12550,10 +12538,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B413" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="C413" t="s">
         <v>22</v>
@@ -12567,10 +12555,10 @@
     </row>
     <row r="414" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>6</v>
@@ -12584,10 +12572,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B415" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="C415" t="s">
         <v>18</v>
@@ -12601,7 +12589,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C416" t="s">
         <v>6</v>
@@ -12615,10 +12603,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B417" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C417" t="s">
         <v>18</v>
@@ -12632,10 +12620,10 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B418" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C418" t="s">
         <v>44</v>
@@ -12649,10 +12637,10 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B419" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C419" t="s">
         <v>44</v>
@@ -12666,16 +12654,16 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
+        <v>897</v>
+      </c>
+      <c r="B420" t="s">
         <v>899</v>
-      </c>
-      <c r="B420" t="s">
-        <v>901</v>
       </c>
       <c r="C420" t="s">
         <v>44</v>
       </c>
       <c r="D420" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E420" t="s">
         <v>33</v>
@@ -12683,10 +12671,10 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B421" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C421" t="s">
         <v>14</v>
@@ -12700,16 +12688,16 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>902</v>
+      </c>
+      <c r="B422" t="s">
         <v>904</v>
-      </c>
-      <c r="B422" t="s">
-        <v>906</v>
       </c>
       <c r="C422" t="s">
         <v>22</v>
       </c>
       <c r="D422" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E422" t="s">
         <v>26</v>
@@ -12717,10 +12705,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="B423" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="C423" t="s">
         <v>22</v>
@@ -12734,10 +12722,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B424" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
@@ -12751,10 +12739,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B425" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -12768,10 +12756,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B426" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C426" t="s">
         <v>14</v>
@@ -12785,10 +12773,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B427" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C427" t="s">
         <v>22</v>
@@ -12802,10 +12790,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B428" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -12819,13 +12807,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C429" t="s">
         <v>27</v>
       </c>
       <c r="D429" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E429" t="s">
         <v>50</v>
@@ -12833,16 +12821,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
+        <v>916</v>
+      </c>
+      <c r="B430" t="s">
         <v>918</v>
-      </c>
-      <c r="B430" t="s">
-        <v>920</v>
       </c>
       <c r="C430" t="s">
         <v>6</v>
       </c>
       <c r="D430" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E430" t="s">
         <v>79</v>
@@ -12850,10 +12838,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B431" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C431" t="s">
         <v>6</v>
@@ -12867,10 +12855,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B432" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C432" t="s">
         <v>6</v>
@@ -12884,10 +12872,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B433" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C433" t="s">
         <v>27</v>
@@ -12901,10 +12889,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B434" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C434" t="s">
         <v>34</v>
@@ -12918,16 +12906,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
+        <v>927</v>
+      </c>
+      <c r="B435" t="s">
         <v>929</v>
-      </c>
-      <c r="B435" t="s">
-        <v>931</v>
       </c>
       <c r="C435" t="s">
         <v>18</v>
       </c>
       <c r="D435" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E435" t="s">
         <v>83</v>
@@ -12935,10 +12923,10 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B436" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C436" t="s">
         <v>22</v>
@@ -12952,10 +12940,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B437" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C437" t="s">
         <v>34</v>
@@ -12969,7 +12957,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C438" t="s">
         <v>22</v>
@@ -12983,10 +12971,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B439" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -13000,10 +12988,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B440" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C440" t="s">
         <v>22</v>
@@ -13017,10 +13005,10 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B441" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C441" t="s">
         <v>22</v>
@@ -13034,13 +13022,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
       </c>
       <c r="D442" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E442" t="s">
         <v>123</v>
@@ -13048,10 +13036,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B443" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C443" t="s">
         <v>6</v>
@@ -13065,10 +13053,10 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B444" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C444" t="s">
         <v>18</v>
@@ -13082,10 +13070,10 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B445" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C445" t="s">
         <v>6</v>
@@ -13099,10 +13087,10 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B446" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C446" t="s">
         <v>34</v>
@@ -13116,10 +13104,10 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B447" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="C447" t="s">
         <v>22</v>
@@ -13133,10 +13121,10 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B448" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C448" t="s">
         <v>22</v>
@@ -13150,10 +13138,10 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B449" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C449" t="s">
         <v>6</v>
@@ -13167,10 +13155,10 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B450" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C450" t="s">
         <v>63</v>
@@ -13184,10 +13172,10 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B451" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="C451" t="s">
         <v>22</v>
@@ -13201,10 +13189,10 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B452" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C452" t="s">
         <v>63</v>
@@ -13218,16 +13206,16 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B453" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="C453" t="s">
         <v>22</v>
       </c>
       <c r="D453" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E453" t="s">
         <v>351</v>
@@ -13235,10 +13223,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B454" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C454" t="s">
         <v>44</v>
@@ -13252,10 +13240,10 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B455" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C455" t="s">
         <v>6</v>
@@ -13269,10 +13257,10 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="B456" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="C456" t="s">
         <v>18</v>
@@ -13286,10 +13274,10 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B457" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C457" t="s">
         <v>27</v>
@@ -13303,13 +13291,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
       </c>
       <c r="D458" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E458" t="s">
         <v>117</v>
@@ -13317,7 +13305,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
@@ -13331,13 +13319,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C460" t="s">
         <v>27</v>
       </c>
       <c r="D460" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E460" t="s">
         <v>56</v>
@@ -13345,16 +13333,16 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
+        <v>971</v>
+      </c>
+      <c r="B461" t="s">
         <v>973</v>
-      </c>
-      <c r="B461" t="s">
-        <v>975</v>
       </c>
       <c r="C461" t="s">
         <v>44</v>
       </c>
       <c r="D461" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E461" t="s">
         <v>113</v>
@@ -13362,10 +13350,10 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B462" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C462" t="s">
         <v>18</v>
@@ -13379,16 +13367,16 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B463" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="C463" t="s">
         <v>6</v>
       </c>
       <c r="D463" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E463" t="s">
         <v>53</v>
@@ -13396,10 +13384,10 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B464" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C464" t="s">
         <v>6</v>
@@ -13413,13 +13401,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C465" t="s">
         <v>34</v>
       </c>
       <c r="D465" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E465" t="s">
         <v>604</v>
@@ -13427,10 +13415,10 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B466" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C466" t="s">
         <v>18</v>
@@ -13444,10 +13432,10 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B467" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C467" t="s">
         <v>63</v>
@@ -13461,10 +13449,10 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B468" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C468" t="s">
         <v>44</v>
@@ -13478,16 +13466,16 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B469" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C469" t="s">
         <v>22</v>
       </c>
       <c r="D469" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E469" t="s">
         <v>83</v>
@@ -13495,10 +13483,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B470" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="C470" t="s">
         <v>6</v>
@@ -13512,7 +13500,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C471" t="s">
         <v>6</v>
@@ -13526,10 +13514,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B472" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C472" t="s">
         <v>22</v>
@@ -13543,10 +13531,10 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B473" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C473" t="s">
         <v>27</v>
@@ -13560,16 +13548,16 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
+        <v>996</v>
+      </c>
+      <c r="B474" t="s">
         <v>998</v>
-      </c>
-      <c r="B474" t="s">
-        <v>1000</v>
       </c>
       <c r="C474" t="s">
         <v>63</v>
       </c>
       <c r="D474" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E474" t="s">
         <v>654</v>
@@ -13577,10 +13565,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B475" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C475" t="s">
         <v>44</v>
@@ -13594,7 +13582,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C476" t="s">
         <v>22</v>
@@ -13608,10 +13596,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B477" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C477" t="s">
         <v>6</v>
@@ -13625,10 +13613,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B478" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C478" t="s">
         <v>14</v>
@@ -13642,10 +13630,10 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B479" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C479" t="s">
         <v>6</v>
@@ -13659,10 +13647,10 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B480" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C480" t="s">
         <v>22</v>
@@ -13676,10 +13664,10 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B481" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C481" t="s">
         <v>6</v>
@@ -13693,7 +13681,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C482" t="s">
         <v>22</v>
@@ -13707,10 +13695,10 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B483" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C483" t="s">
         <v>22</v>
@@ -13724,10 +13712,10 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B484" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C484" t="s">
         <v>6</v>
@@ -13741,10 +13729,10 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B485" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -13758,7 +13746,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C486" t="s">
         <v>27</v>
@@ -13772,10 +13760,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B487" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C487" t="s">
         <v>44</v>
@@ -13789,10 +13777,10 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B488" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C488" t="s">
         <v>14</v>
@@ -13806,10 +13794,10 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B489" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C489" t="s">
         <v>6</v>
@@ -13823,10 +13811,10 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B490" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C490" t="s">
         <v>44</v>
@@ -13840,7 +13828,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C491" t="s">
         <v>44</v>
@@ -13854,10 +13842,10 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B492" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C492" t="s">
         <v>44</v>
@@ -13871,10 +13859,10 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B493" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C493" t="s">
         <v>34</v>
@@ -13888,7 +13876,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C494" t="s">
         <v>22</v>
@@ -13902,10 +13890,10 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B495" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C495" t="s">
         <v>44</v>
@@ -13919,7 +13907,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C496" t="s">
         <v>22</v>
@@ -13933,10 +13921,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="B497" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="C497" t="s">
         <v>6</v>
@@ -13950,16 +13938,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B498" t="s">
         <v>1038</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1040</v>
       </c>
       <c r="C498" t="s">
         <v>6</v>
       </c>
       <c r="D498" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E498" t="s">
         <v>219</v>
@@ -13967,10 +13955,10 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B499" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C499" t="s">
         <v>34</v>
@@ -13984,10 +13972,10 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B500" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C500" t="s">
         <v>34</v>
@@ -14001,13 +13989,13 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C501" t="s">
         <v>14</v>
       </c>
       <c r="D501" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E501" t="s">
         <v>75</v>
@@ -14015,10 +14003,10 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B502" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C502" t="s">
         <v>22</v>
@@ -14032,16 +14020,16 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B503" t="s">
         <v>1049</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1051</v>
       </c>
       <c r="C503" t="s">
         <v>6</v>
       </c>
       <c r="D503" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E503" t="s">
         <v>233</v>
@@ -14049,10 +14037,10 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B504" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C504" t="s">
         <v>6</v>
@@ -14066,10 +14054,10 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B505" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C505" t="s">
         <v>34</v>
@@ -14083,16 +14071,16 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B506" t="s">
         <v>1056</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1058</v>
       </c>
       <c r="C506" t="s">
         <v>6</v>
       </c>
       <c r="D506" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E506" t="s">
         <v>5</v>
@@ -14100,10 +14088,10 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B507" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C507" t="s">
         <v>44</v>
@@ -14117,10 +14105,10 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B508" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C508" t="s">
         <v>6</v>
@@ -14134,7 +14122,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C509" t="s">
         <v>22</v>
@@ -14148,10 +14136,10 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B510" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="C510" t="s">
         <v>18</v>
@@ -14165,10 +14153,10 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B511" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C511" t="s">
         <v>63</v>
@@ -14182,10 +14170,10 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B512" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C512" t="s">
         <v>14</v>
@@ -14199,10 +14187,10 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B513" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C513" t="s">
         <v>44</v>
@@ -14216,16 +14204,16 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B514" t="s">
         <v>1071</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1073</v>
       </c>
       <c r="C514" t="s">
         <v>44</v>
       </c>
       <c r="D514" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
@@ -14233,10 +14221,10 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B515" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C515" t="s">
         <v>22</v>
@@ -14250,10 +14238,10 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B516" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C516" t="s">
         <v>18</v>
@@ -14267,16 +14255,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B517" t="s">
         <v>1078</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1080</v>
       </c>
       <c r="C517" t="s">
         <v>22</v>
       </c>
       <c r="D517" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E517" t="s">
         <v>351</v>
@@ -14284,13 +14272,13 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C518" t="s">
         <v>14</v>
       </c>
       <c r="D518" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E518" t="s">
         <v>75</v>
@@ -14298,10 +14286,10 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B519" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C519" t="s">
         <v>63</v>
@@ -14315,10 +14303,10 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B520" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C520" t="s">
         <v>6</v>
@@ -14332,10 +14320,10 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B521" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C521" t="s">
         <v>14</v>
@@ -14349,10 +14337,10 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B522" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C522" t="s">
         <v>34</v>
@@ -14366,10 +14354,10 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B523" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C523" t="s">
         <v>14</v>
@@ -14383,10 +14371,10 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B524" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C524" t="s">
         <v>6</v>
@@ -14400,16 +14388,16 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B525" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C525" t="s">
         <v>44</v>
       </c>
       <c r="D525" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E525" t="s">
         <v>654</v>
@@ -14417,10 +14405,10 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B526" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="C526" t="s">
         <v>34</v>
@@ -14434,10 +14422,10 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B527" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C527" t="s">
         <v>63</v>
@@ -14451,13 +14439,13 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C528" t="s">
         <v>22</v>
       </c>
       <c r="D528" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E528" t="s">
         <v>9</v>
@@ -14465,10 +14453,10 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B529" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C529" t="s">
         <v>63</v>
@@ -14482,10 +14470,10 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B530" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C530" t="s">
         <v>6</v>
@@ -14499,10 +14487,10 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B531" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C531" t="s">
         <v>34</v>
@@ -14516,16 +14504,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B532" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C532" t="s">
         <v>44</v>
       </c>
       <c r="D532" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E532" t="s">
         <v>113</v>
@@ -14533,10 +14521,10 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B533" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="C533" t="s">
         <v>34</v>
@@ -14550,10 +14538,10 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B534" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C534" t="s">
         <v>14</v>
@@ -14567,10 +14555,10 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B535" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C535" t="s">
         <v>22</v>
@@ -14584,10 +14572,10 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B536" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C536" t="s">
         <v>22</v>
@@ -14601,10 +14589,10 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B537" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C537" t="s">
         <v>6</v>
@@ -14618,16 +14606,16 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B538" t="s">
         <v>1117</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1119</v>
       </c>
       <c r="C538" t="s">
         <v>6</v>
       </c>
       <c r="D538" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E538" t="s">
         <v>654</v>
@@ -14635,10 +14623,10 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B539" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
@@ -14652,16 +14640,16 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B540" t="s">
         <v>1122</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1124</v>
       </c>
       <c r="C540" t="s">
         <v>63</v>
       </c>
       <c r="D540" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E540" t="s">
         <v>26</v>
@@ -14669,7 +14657,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C541" t="s">
         <v>18</v>
@@ -14683,10 +14671,10 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B542" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C542" t="s">
         <v>22</v>
@@ -14700,10 +14688,10 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B543" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C543" t="s">
         <v>22</v>
@@ -14717,10 +14705,10 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B544" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C544" t="s">
         <v>44</v>
@@ -14734,10 +14722,10 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B545" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="C545" t="s">
         <v>22</v>
@@ -14751,10 +14739,10 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B546" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C546" t="s">
         <v>22</v>
@@ -14768,16 +14756,16 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B547" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="C547" t="s">
         <v>6</v>
       </c>
       <c r="D547" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E547" t="s">
         <v>219</v>
@@ -14785,16 +14773,16 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B548" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="C548" t="s">
         <v>6</v>
       </c>
       <c r="D548" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E548" t="s">
         <v>50</v>
@@ -14802,13 +14790,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C549" t="s">
         <v>6</v>
       </c>
       <c r="D549" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E549" t="s">
         <v>172</v>
@@ -14816,10 +14804,10 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B550" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="C550" t="s">
         <v>27</v>
@@ -14833,10 +14821,10 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B551" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C551" t="s">
         <v>44</v>
@@ -14850,16 +14838,16 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B552" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="C552" t="s">
         <v>6</v>
       </c>
       <c r="D552" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E552" t="s">
         <v>219</v>
@@ -14867,10 +14855,10 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B553" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -14884,10 +14872,10 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B554" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="C554" t="s">
         <v>14</v>
@@ -14901,7 +14889,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C555" t="s">
         <v>14</v>
@@ -14915,10 +14903,10 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B556" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C556" t="s">
         <v>6</v>
@@ -14932,10 +14920,10 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B557" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C557" t="s">
         <v>6</v>
@@ -14949,16 +14937,16 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B558" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C558" t="s">
         <v>44</v>
       </c>
       <c r="D558" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E558" t="s">
         <v>123</v>
@@ -14966,10 +14954,10 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B559" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C559" t="s">
         <v>27</v>
@@ -14983,10 +14971,10 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B560" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C560" t="s">
         <v>6</v>
@@ -15000,10 +14988,10 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B561" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -15017,10 +15005,10 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B562" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C562" t="s">
         <v>18</v>
@@ -15034,10 +15022,10 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B563" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C563" t="s">
         <v>22</v>
@@ -15051,16 +15039,16 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B564" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C564" t="s">
         <v>63</v>
       </c>
       <c r="D564" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E564" t="s">
         <v>26</v>
@@ -15068,10 +15056,10 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B565" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C565" t="s">
         <v>18</v>
@@ -15085,10 +15073,10 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B566" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C566" t="s">
         <v>34</v>
@@ -15102,16 +15090,16 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B567" t="s">
         <v>1169</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1171</v>
       </c>
       <c r="C567" t="s">
         <v>6</v>
       </c>
       <c r="D567" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E567" t="s">
         <v>243</v>
@@ -15119,16 +15107,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B568" t="s">
         <v>1172</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1174</v>
       </c>
       <c r="C568" t="s">
         <v>34</v>
       </c>
       <c r="D568" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E568" t="s">
         <v>26</v>
@@ -15136,10 +15124,10 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B569" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C569" t="s">
         <v>44</v>
@@ -15153,10 +15141,10 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B570" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C570" t="s">
         <v>18</v>
@@ -15170,16 +15158,16 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B571" t="s">
         <v>1178</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1180</v>
       </c>
       <c r="C571" t="s">
         <v>44</v>
       </c>
       <c r="D571" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E571" t="s">
         <v>40</v>
@@ -15187,10 +15175,10 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B572" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C572" t="s">
         <v>44</v>
@@ -15204,10 +15192,10 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B573" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C573" t="s">
         <v>34</v>
@@ -15221,10 +15209,10 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B574" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C574" t="s">
         <v>18</v>
@@ -15238,10 +15226,10 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B575" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C575" t="s">
         <v>22</v>
@@ -15255,10 +15243,10 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B576" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="C576" t="s">
         <v>22</v>
@@ -15272,16 +15260,16 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B577" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C577" t="s">
         <v>63</v>
       </c>
       <c r="D577" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E577" t="s">
         <v>26</v>
@@ -15289,10 +15277,10 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B578" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C578" t="s">
         <v>44</v>
@@ -15306,10 +15294,10 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B579" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C579" t="s">
         <v>22</v>
@@ -15323,10 +15311,10 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B580" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C580" t="s">
         <v>14</v>
@@ -15340,10 +15328,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B581" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="C581" t="s">
         <v>27</v>
@@ -15357,10 +15345,10 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B582" t="s">
-        <v>1591</v>
+        <v>1617</v>
       </c>
       <c r="C582" t="s">
         <v>27</v>
@@ -15374,13 +15362,13 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C583" t="s">
         <v>34</v>
       </c>
       <c r="D583" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E583" t="s">
         <v>40</v>
@@ -15388,16 +15376,16 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B584" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C584" t="s">
         <v>34</v>
       </c>
       <c r="D584" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E584" t="s">
         <v>117</v>
@@ -15405,7 +15393,7 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C585" t="s">
         <v>18</v>
@@ -15419,10 +15407,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B586" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C586" t="s">
         <v>34</v>
@@ -15436,10 +15424,10 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B587" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C587" t="s">
         <v>14</v>
@@ -15453,16 +15441,16 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B588" t="s">
         <v>1209</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1211</v>
       </c>
       <c r="C588" t="s">
         <v>27</v>
       </c>
       <c r="D588" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E588" t="s">
         <v>123</v>
@@ -15470,10 +15458,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B589" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C589" t="s">
         <v>22</v>
@@ -15487,10 +15475,10 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B590" t="s">
-        <v>1592</v>
+        <v>1618</v>
       </c>
       <c r="C590" t="s">
         <v>27</v>
@@ -15504,10 +15492,10 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B591" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C591" t="s">
         <v>6</v>
@@ -15521,10 +15509,10 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B592" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C592" t="s">
         <v>22</v>
@@ -15538,10 +15526,10 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B593" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C593" t="s">
         <v>6</v>
@@ -15555,10 +15543,10 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B594" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C594" t="s">
         <v>22</v>
@@ -15572,10 +15560,10 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B595" t="s">
-        <v>958</v>
+        <v>1621</v>
       </c>
       <c r="C595" t="s">
         <v>22</v>
@@ -15589,10 +15577,10 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B596" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C596" t="s">
         <v>18</v>
@@ -15606,16 +15594,16 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B597" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C597" t="s">
         <v>6</v>
       </c>
       <c r="D597" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E597" t="s">
         <v>654</v>
@@ -15623,10 +15611,10 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B598" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C598" t="s">
         <v>27</v>
@@ -15640,10 +15628,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B599" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C599" t="s">
         <v>22</v>
@@ -15657,10 +15645,10 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B600" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C600" t="s">
         <v>34</v>
@@ -15674,10 +15662,10 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B601" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C601" t="s">
         <v>22</v>
@@ -15691,10 +15679,10 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="B602" t="s">
-        <v>1594</v>
+        <v>1619</v>
       </c>
       <c r="C602" t="s">
         <v>22</v>
@@ -15708,10 +15696,10 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B603" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C603" t="s">
         <v>63</v>
@@ -15725,7 +15713,7 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C604" t="s">
         <v>6</v>
@@ -15739,16 +15727,16 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B605" t="s">
         <v>1239</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1241</v>
       </c>
       <c r="C605" t="s">
         <v>22</v>
       </c>
       <c r="D605" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E605" t="s">
         <v>604</v>
@@ -15756,10 +15744,10 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B606" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C606" t="s">
         <v>6</v>
@@ -15773,10 +15761,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B607" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C607" t="s">
         <v>63</v>
@@ -15790,10 +15778,10 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B608" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C608" t="s">
         <v>6</v>
@@ -15807,10 +15795,10 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B609" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C609" t="s">
         <v>44</v>
@@ -15824,10 +15812,10 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B610" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C610" t="s">
         <v>6</v>
@@ -15841,7 +15829,7 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C611" t="s">
         <v>22</v>
@@ -15855,10 +15843,10 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B612" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C612" t="s">
         <v>6</v>
@@ -15872,10 +15860,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B613" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C613" t="s">
         <v>34</v>
@@ -15889,7 +15877,7 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C614" t="s">
         <v>6</v>
@@ -15903,10 +15891,10 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B615" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C615" t="s">
         <v>44</v>
@@ -15920,10 +15908,10 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B616" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C616" t="s">
         <v>44</v>
@@ -15937,16 +15925,16 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B617" t="s">
         <v>1262</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1264</v>
       </c>
       <c r="C617" t="s">
         <v>34</v>
       </c>
       <c r="D617" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E617" t="s">
         <v>60</v>
@@ -15954,7 +15942,7 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C618" t="s">
         <v>22</v>
@@ -15968,10 +15956,10 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B619" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="C619" t="s">
         <v>6</v>
@@ -15985,7 +15973,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C620" t="s">
         <v>22</v>
@@ -15999,7 +15987,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B621" s="2"/>
       <c r="C621" s="2" t="s">
@@ -16014,10 +16002,10 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="B622" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="C622" t="s">
         <v>6</v>
@@ -16031,13 +16019,13 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C623" t="s">
         <v>14</v>
       </c>
       <c r="D623" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E623" t="s">
         <v>243</v>
@@ -16045,10 +16033,10 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B624" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C624" t="s">
         <v>22</v>
@@ -16062,16 +16050,16 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B625" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C625" t="s">
         <v>6</v>
       </c>
       <c r="D625" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E625" t="s">
         <v>50</v>
@@ -16079,7 +16067,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C626" t="s">
         <v>27</v>
@@ -16093,10 +16081,10 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B627" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C627" t="s">
         <v>22</v>
@@ -16110,10 +16098,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B628" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C628" t="s">
         <v>34</v>
@@ -16127,16 +16115,16 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B629" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="C629" t="s">
         <v>6</v>
       </c>
       <c r="D629" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E629" t="s">
         <v>219</v>
@@ -16144,16 +16132,16 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B630" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C630" t="s">
         <v>6</v>
       </c>
       <c r="D630" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E630" t="s">
         <v>243</v>
@@ -16161,10 +16149,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B631" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C631" t="s">
         <v>44</v>
@@ -16178,16 +16166,16 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B632" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C632" t="s">
         <v>14</v>
       </c>
       <c r="D632" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E632" t="s">
         <v>60</v>
@@ -16195,10 +16183,10 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B633" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C633" t="s">
         <v>22</v>
@@ -16212,10 +16200,10 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B634" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C634" t="s">
         <v>6</v>
@@ -16229,10 +16217,10 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B635" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C635" t="s">
         <v>27</v>
@@ -16246,16 +16234,16 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B636" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C636" t="s">
         <v>22</v>
       </c>
       <c r="D636" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E636" t="s">
         <v>9</v>
@@ -16263,10 +16251,10 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B637" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C637" t="s">
         <v>14</v>
@@ -16280,16 +16268,16 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B638" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="C638" t="s">
         <v>6</v>
       </c>
       <c r="D638" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E638" t="s">
         <v>172</v>
@@ -16297,10 +16285,10 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B639" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="C639" t="s">
         <v>44</v>
@@ -16314,16 +16302,16 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B640" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C640" t="s">
         <v>27</v>
       </c>
       <c r="D640" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E640" t="s">
         <v>50</v>
@@ -16331,10 +16319,10 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B641" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C641" t="s">
         <v>34</v>
@@ -16348,10 +16336,10 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B642" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C642" t="s">
         <v>44</v>
@@ -16365,16 +16353,16 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="B643" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="C643" t="s">
         <v>6</v>
       </c>
       <c r="D643" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E643" t="s">
         <v>243</v>
@@ -16382,7 +16370,7 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C644" t="s">
         <v>6</v>
@@ -16396,10 +16384,10 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B645" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="C645" t="s">
         <v>27</v>
@@ -16413,10 +16401,10 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B646" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C646" t="s">
         <v>6</v>
@@ -16430,10 +16418,10 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B647" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C647" t="s">
         <v>22</v>
@@ -16447,10 +16435,10 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B648" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C648" t="s">
         <v>22</v>
@@ -16464,10 +16452,10 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B649" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C649" t="s">
         <v>18</v>
@@ -16481,10 +16469,10 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B650" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C650" t="s">
         <v>22</v>
@@ -16498,7 +16486,7 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C651" t="s">
         <v>14</v>
@@ -16512,10 +16500,10 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B652" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C652" t="s">
         <v>22</v>
@@ -16529,10 +16517,10 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B653" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C653" t="s">
         <v>27</v>
@@ -16546,10 +16534,10 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B654" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C654" t="s">
         <v>6</v>
@@ -16563,10 +16551,10 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B655" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C655" t="s">
         <v>6</v>
@@ -16580,10 +16568,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B656" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C656" t="s">
         <v>14</v>
@@ -16597,10 +16585,10 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B657" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C657" t="s">
         <v>22</v>
@@ -16614,10 +16602,10 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B658" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C658" t="s">
         <v>22</v>
@@ -16631,16 +16619,16 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B659" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C659" t="s">
         <v>6</v>
       </c>
       <c r="D659" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E659" t="s">
         <v>50</v>
@@ -16648,10 +16636,10 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B660" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C660" t="s">
         <v>27</v>
@@ -16665,10 +16653,10 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B661" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C661" t="s">
         <v>22</v>
@@ -16682,10 +16670,10 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B662" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C662" t="s">
         <v>44</v>
@@ -16699,10 +16687,10 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B663" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C663" t="s">
         <v>6</v>
@@ -16716,13 +16704,13 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C664" t="s">
         <v>27</v>
       </c>
       <c r="D664" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E664" t="s">
         <v>117</v>
@@ -16730,7 +16718,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C665" t="s">
         <v>27</v>
@@ -16744,16 +16732,16 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B666" t="s">
         <v>1346</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1348</v>
       </c>
       <c r="C666" t="s">
         <v>6</v>
       </c>
       <c r="D666" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E666" t="s">
         <v>233</v>
@@ -16761,16 +16749,16 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B667" t="s">
         <v>1349</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1351</v>
       </c>
       <c r="C667" t="s">
         <v>44</v>
       </c>
       <c r="D667" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E667" t="s">
         <v>83</v>
@@ -16778,16 +16766,16 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B668" t="s">
         <v>1352</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1354</v>
       </c>
       <c r="C668" t="s">
         <v>44</v>
       </c>
       <c r="D668" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E668" t="s">
         <v>654</v>
@@ -16795,16 +16783,16 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B669" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="C669" t="s">
         <v>27</v>
       </c>
       <c r="D669" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E669" t="s">
         <v>219</v>
@@ -16812,10 +16800,10 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B670" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C670" t="s">
         <v>6</v>
@@ -16829,10 +16817,10 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B671" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C671" t="s">
         <v>34</v>
@@ -16846,10 +16834,10 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B672" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C672" t="s">
         <v>18</v>
@@ -16863,10 +16851,10 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="B673" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="C673" t="s">
         <v>44</v>
@@ -16880,10 +16868,10 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B674" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C674" t="s">
         <v>6</v>
@@ -16897,10 +16885,10 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B675" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="C675" t="s">
         <v>44</v>
@@ -16914,10 +16902,10 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B676" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C676" t="s">
         <v>22</v>
@@ -16931,13 +16919,13 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C677" t="s">
         <v>14</v>
       </c>
       <c r="D677" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E677" t="s">
         <v>172</v>
@@ -16945,16 +16933,16 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B678" t="s">
         <v>1370</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1372</v>
       </c>
       <c r="C678" t="s">
         <v>22</v>
       </c>
       <c r="D678" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E678" t="s">
         <v>87</v>
@@ -16962,16 +16950,16 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B679" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C679" t="s">
         <v>63</v>
       </c>
       <c r="D679" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E679" t="s">
         <v>26</v>
@@ -16979,16 +16967,16 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B680" t="s">
         <v>1375</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1377</v>
       </c>
       <c r="C680" t="s">
         <v>34</v>
       </c>
       <c r="D680" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E680" t="s">
         <v>26</v>
@@ -16996,10 +16984,10 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B681" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="C681" t="s">
         <v>22</v>
@@ -17013,16 +17001,16 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B682" t="s">
         <v>1379</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1381</v>
       </c>
       <c r="C682" t="s">
         <v>44</v>
       </c>
       <c r="D682" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E682" t="s">
         <v>117</v>
@@ -17030,16 +17018,16 @@
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B683" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C683" t="s">
         <v>6</v>
       </c>
       <c r="D683" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E683" t="s">
         <v>56</v>
@@ -17047,10 +17035,10 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B684" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="C684" t="s">
         <v>6</v>
@@ -17064,16 +17052,16 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B685" t="s">
         <v>1385</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1387</v>
       </c>
       <c r="C685" t="s">
         <v>34</v>
       </c>
       <c r="D685" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E685" t="s">
         <v>189</v>
@@ -17081,16 +17069,16 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B686" t="s">
         <v>1388</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1390</v>
       </c>
       <c r="C686" t="s">
         <v>22</v>
       </c>
       <c r="D686" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E686" t="s">
         <v>79</v>
@@ -17098,10 +17086,10 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B687" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="C687" t="s">
         <v>18</v>
@@ -17115,10 +17103,10 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B688" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="C688" t="s">
         <v>27</v>
@@ -17132,10 +17120,10 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B689" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C689" t="s">
         <v>27</v>
@@ -17149,10 +17137,10 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B690" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C690" t="s">
         <v>34</v>
@@ -17166,16 +17154,16 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B691" t="s">
         <v>1397</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1399</v>
       </c>
       <c r="C691" t="s">
         <v>44</v>
       </c>
       <c r="D691" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E691" t="s">
         <v>79</v>
@@ -17183,10 +17171,10 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B692" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C692" t="s">
         <v>44</v>
@@ -17200,13 +17188,13 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C693" t="s">
         <v>27</v>
       </c>
       <c r="D693" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E693" t="s">
         <v>75</v>
@@ -17214,10 +17202,10 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B694" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C694" t="s">
         <v>6</v>
@@ -17231,16 +17219,16 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B695" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C695" t="s">
         <v>44</v>
       </c>
       <c r="D695" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E695" t="s">
         <v>79</v>
@@ -17248,10 +17236,10 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B696" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C696" t="s">
         <v>18</v>
@@ -17265,16 +17253,16 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B697" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C697" t="s">
         <v>63</v>
       </c>
       <c r="D697" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E697" t="s">
         <v>26</v>
@@ -17282,16 +17270,16 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B698" t="s">
         <v>1412</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1414</v>
       </c>
       <c r="C698" t="s">
         <v>63</v>
       </c>
       <c r="D698" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E698" t="s">
         <v>113</v>
@@ -17299,16 +17287,16 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B699" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="C699" t="s">
         <v>6</v>
       </c>
       <c r="D699" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E699" t="s">
         <v>101</v>
@@ -17316,16 +17304,16 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B700" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C700" t="s">
         <v>6</v>
       </c>
       <c r="D700" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E700" t="s">
         <v>654</v>
@@ -17333,13 +17321,13 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C701" t="s">
         <v>22</v>
       </c>
       <c r="D701" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E701" t="s">
         <v>9</v>
@@ -17347,10 +17335,10 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B702" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C702" t="s">
         <v>44</v>
@@ -17364,7 +17352,7 @@
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C703" t="s">
         <v>22</v>
@@ -17378,10 +17366,10 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B704" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="C704" t="s">
         <v>34</v>
@@ -17395,16 +17383,16 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B705" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C705" t="s">
         <v>27</v>
       </c>
       <c r="D705" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E705" t="s">
         <v>219</v>
@@ -17412,10 +17400,10 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B706" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C706" t="s">
         <v>44</v>
@@ -17429,10 +17417,10 @@
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B707" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C707" t="s">
         <v>6</v>
@@ -17446,10 +17434,10 @@
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B708" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C708" t="s">
         <v>6</v>
@@ -17463,16 +17451,16 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B709" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C709" t="s">
         <v>27</v>
       </c>
       <c r="D709" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E709" t="s">
         <v>219</v>
@@ -17480,10 +17468,10 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B710" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C710" t="s">
         <v>18</v>
@@ -17497,16 +17485,16 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B711" t="s">
         <v>1436</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1438</v>
       </c>
       <c r="C711" t="s">
         <v>63</v>
       </c>
       <c r="D711" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E711" t="s">
         <v>310</v>
@@ -17514,10 +17502,10 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B712" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C712" t="s">
         <v>6</v>
@@ -17531,10 +17519,10 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B713" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C713" t="s">
         <v>6</v>
@@ -17548,16 +17536,16 @@
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B714" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C714" t="s">
         <v>6</v>
       </c>
       <c r="D714" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E714" t="s">
         <v>50</v>
@@ -17565,10 +17553,10 @@
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B715" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C715" t="s">
         <v>22</v>
@@ -17582,10 +17570,10 @@
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B716" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="C716" t="s">
         <v>27</v>
@@ -17599,10 +17587,10 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B717" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C717" t="s">
         <v>6</v>
@@ -17616,16 +17604,16 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B718" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C718" t="s">
         <v>27</v>
       </c>
       <c r="D718" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E718" t="s">
         <v>50</v>
@@ -17633,16 +17621,16 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B719" t="s">
         <v>1452</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1454</v>
       </c>
       <c r="C719" t="s">
         <v>6</v>
       </c>
       <c r="D719" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E719" t="s">
         <v>113</v>
@@ -17650,10 +17638,10 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B720" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="C720" t="s">
         <v>14</v>
@@ -17667,7 +17655,7 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C721" t="s">
         <v>14</v>
@@ -17681,7 +17669,7 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C722" t="s">
         <v>6</v>
@@ -17695,13 +17683,13 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C723" t="s">
         <v>34</v>
       </c>
       <c r="D723" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E723" t="s">
         <v>189</v>
@@ -17709,7 +17697,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C724" t="s">
         <v>6</v>
@@ -17723,16 +17711,16 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B725" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C725" t="s">
         <v>6</v>
       </c>
       <c r="D725" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E725" t="s">
         <v>101</v>
@@ -17740,10 +17728,10 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B726" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C726" t="s">
         <v>6</v>
@@ -17757,10 +17745,10 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B727" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C727" t="s">
         <v>6</v>
@@ -17774,10 +17762,10 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B728" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="C728" t="s">
         <v>27</v>
@@ -17791,10 +17779,10 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B729" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C729" t="s">
         <v>22</v>
@@ -17808,10 +17796,10 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B730" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C730" t="s">
         <v>34</v>
@@ -17825,16 +17813,16 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B731" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C731" t="s">
         <v>44</v>
       </c>
       <c r="D731" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E731" t="s">
         <v>40</v>
@@ -17842,16 +17830,16 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B732" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C732" t="s">
         <v>22</v>
       </c>
       <c r="D732" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E732" t="s">
         <v>9</v>
@@ -17859,10 +17847,10 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B733" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C733" t="s">
         <v>44</v>
@@ -17876,7 +17864,7 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C734" t="s">
         <v>6</v>
@@ -17890,16 +17878,16 @@
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B735" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C735" t="s">
         <v>27</v>
       </c>
       <c r="D735" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E735" t="s">
         <v>219</v>
@@ -17907,10 +17895,10 @@
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B736" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C736" t="s">
         <v>27</v>
@@ -17924,10 +17912,10 @@
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B737" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="C737" t="s">
         <v>18</v>
@@ -17941,10 +17929,10 @@
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B738" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C738" t="s">
         <v>18</v>
@@ -17958,7 +17946,7 @@
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C739" t="s">
         <v>6</v>
@@ -17972,16 +17960,16 @@
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B740" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="C740" t="s">
         <v>34</v>
       </c>
       <c r="D740" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E740" t="s">
         <v>56</v>
@@ -17989,16 +17977,16 @@
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B741" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="C741" t="s">
         <v>6</v>
       </c>
       <c r="D741" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E741" t="s">
         <v>219</v>
@@ -18006,16 +17994,16 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B742" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C742" t="s">
         <v>27</v>
       </c>
       <c r="D742" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E742" t="s">
         <v>56</v>
@@ -18023,7 +18011,7 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C743" t="s">
         <v>18</v>
@@ -18037,10 +18025,10 @@
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B744" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="C744" t="s">
         <v>27</v>
@@ -18054,10 +18042,10 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B745" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C745" t="s">
         <v>6</v>
@@ -18071,10 +18059,10 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B746" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C746" t="s">
         <v>22</v>
@@ -18088,16 +18076,16 @@
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B747" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="C747" t="s">
         <v>6</v>
       </c>
       <c r="D747" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E747" t="s">
         <v>243</v>
@@ -18105,10 +18093,10 @@
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B748" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C748" t="s">
         <v>14</v>
@@ -18122,16 +18110,16 @@
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B749" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C749" t="s">
         <v>6</v>
       </c>
       <c r="D749" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E749" t="s">
         <v>233</v>

--- a/data/list_meps_2019.xlsx
+++ b/data/list_meps_2019.xlsx
@@ -4656,9 +4656,6 @@
     <t>aliciahoms</t>
   </si>
   <si>
-    <t>IncirEvin</t>
-  </si>
-  <si>
     <t>JackieJonesWal1</t>
   </si>
   <si>
@@ -4885,6 +4882,9 @@
   </si>
   <si>
     <t>isabel_mep</t>
+  </si>
+  <si>
+    <t>EvinIncir</t>
   </si>
 </sst>
 </file>
@@ -5735,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="B595" sqref="B595"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10946,7 +10946,7 @@
         <v>703</v>
       </c>
       <c r="B316" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C316" t="s">
         <v>44</v>
@@ -11096,7 +11096,7 @@
         <v>721</v>
       </c>
       <c r="B325" t="s">
-        <v>1545</v>
+        <v>1621</v>
       </c>
       <c r="C325" t="s">
         <v>22</v>
@@ -11260,7 +11260,7 @@
         <v>741</v>
       </c>
       <c r="B335" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C335" t="s">
         <v>22</v>
@@ -11342,7 +11342,7 @@
         <v>749</v>
       </c>
       <c r="B340" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
@@ -11571,10 +11571,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B354" t="s">
         <v>1547</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1548</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -11744,7 +11744,7 @@
         <v>801</v>
       </c>
       <c r="B364" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C364" t="s">
         <v>27</v>
@@ -11809,7 +11809,7 @@
         <v>808</v>
       </c>
       <c r="B368" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C368" t="s">
         <v>22</v>
@@ -12080,7 +12080,7 @@
         <v>839</v>
       </c>
       <c r="B385" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C385" t="s">
         <v>27</v>
@@ -12193,7 +12193,7 @@
         <v>850</v>
       </c>
       <c r="B392" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C392" t="s">
         <v>27</v>
@@ -12210,7 +12210,7 @@
         <v>851</v>
       </c>
       <c r="B393" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -12391,7 +12391,7 @@
         <v>870</v>
       </c>
       <c r="B404" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C404" t="s">
         <v>18</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -12490,7 +12490,7 @@
         <v>881</v>
       </c>
       <c r="B410" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C410" t="s">
         <v>22</v>
@@ -12541,7 +12541,7 @@
         <v>886</v>
       </c>
       <c r="B413" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C413" t="s">
         <v>22</v>
@@ -12575,7 +12575,7 @@
         <v>889</v>
       </c>
       <c r="B415" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C415" t="s">
         <v>18</v>
@@ -12705,10 +12705,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B423" t="s">
         <v>1557</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1558</v>
       </c>
       <c r="C423" t="s">
         <v>22</v>
@@ -12793,7 +12793,7 @@
         <v>913</v>
       </c>
       <c r="B428" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -12974,7 +12974,7 @@
         <v>935</v>
       </c>
       <c r="B439" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -13107,7 +13107,7 @@
         <v>950</v>
       </c>
       <c r="B447" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C447" t="s">
         <v>22</v>
@@ -13175,7 +13175,7 @@
         <v>957</v>
       </c>
       <c r="B451" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C451" t="s">
         <v>22</v>
@@ -13209,7 +13209,7 @@
         <v>960</v>
       </c>
       <c r="B453" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C453" t="s">
         <v>22</v>
@@ -13257,10 +13257,10 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B456" t="s">
         <v>1564</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1565</v>
       </c>
       <c r="C456" t="s">
         <v>18</v>
@@ -13291,7 +13291,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
@@ -13370,7 +13370,7 @@
         <v>976</v>
       </c>
       <c r="B463" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C463" t="s">
         <v>6</v>
@@ -13486,7 +13486,7 @@
         <v>990</v>
       </c>
       <c r="B470" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C470" t="s">
         <v>6</v>
@@ -13732,7 +13732,7 @@
         <v>1017</v>
       </c>
       <c r="B485" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -13921,10 +13921,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B497" t="s">
         <v>1570</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1571</v>
       </c>
       <c r="C497" t="s">
         <v>6</v>
@@ -14139,7 +14139,7 @@
         <v>1062</v>
       </c>
       <c r="B510" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C510" t="s">
         <v>18</v>
@@ -14408,7 +14408,7 @@
         <v>1094</v>
       </c>
       <c r="B526" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C526" t="s">
         <v>34</v>
@@ -14524,7 +14524,7 @@
         <v>1106</v>
       </c>
       <c r="B533" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C533" t="s">
         <v>34</v>
@@ -14725,7 +14725,7 @@
         <v>1130</v>
       </c>
       <c r="B545" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C545" t="s">
         <v>22</v>
@@ -14759,7 +14759,7 @@
         <v>1133</v>
       </c>
       <c r="B547" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C547" t="s">
         <v>6</v>
@@ -14776,7 +14776,7 @@
         <v>1135</v>
       </c>
       <c r="B548" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C548" t="s">
         <v>6</v>
@@ -14807,7 +14807,7 @@
         <v>1138</v>
       </c>
       <c r="B550" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C550" t="s">
         <v>27</v>
@@ -14841,7 +14841,7 @@
         <v>1141</v>
       </c>
       <c r="B552" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C552" t="s">
         <v>6</v>
@@ -14875,7 +14875,7 @@
         <v>1144</v>
       </c>
       <c r="B554" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C554" t="s">
         <v>14</v>
@@ -14991,7 +14991,7 @@
         <v>1156</v>
       </c>
       <c r="B561" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -15144,7 +15144,7 @@
         <v>1175</v>
       </c>
       <c r="B570" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C570" t="s">
         <v>18</v>
@@ -15246,7 +15246,7 @@
         <v>1187</v>
       </c>
       <c r="B576" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C576" t="s">
         <v>22</v>
@@ -15331,7 +15331,7 @@
         <v>1196</v>
       </c>
       <c r="B581" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C581" t="s">
         <v>27</v>
@@ -15348,7 +15348,7 @@
         <v>1197</v>
       </c>
       <c r="B582" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C582" t="s">
         <v>27</v>
@@ -15478,7 +15478,7 @@
         <v>1212</v>
       </c>
       <c r="B590" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C590" t="s">
         <v>27</v>
@@ -15563,7 +15563,7 @@
         <v>1221</v>
       </c>
       <c r="B595" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C595" t="s">
         <v>22</v>
@@ -15679,10 +15679,10 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B602" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C602" t="s">
         <v>22</v>
@@ -15959,7 +15959,7 @@
         <v>1264</v>
       </c>
       <c r="B619" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C619" t="s">
         <v>6</v>
@@ -16002,10 +16002,10 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B622" t="s">
         <v>1587</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1588</v>
       </c>
       <c r="C622" t="s">
         <v>6</v>
@@ -16118,7 +16118,7 @@
         <v>1278</v>
       </c>
       <c r="B629" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C629" t="s">
         <v>6</v>
@@ -16152,7 +16152,7 @@
         <v>1282</v>
       </c>
       <c r="B631" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C631" t="s">
         <v>44</v>
@@ -16271,7 +16271,7 @@
         <v>1295</v>
       </c>
       <c r="B638" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C638" t="s">
         <v>6</v>
@@ -16288,7 +16288,7 @@
         <v>1297</v>
       </c>
       <c r="B639" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C639" t="s">
         <v>44</v>
@@ -16353,10 +16353,10 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B643" t="s">
         <v>1593</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1594</v>
       </c>
       <c r="C643" t="s">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1305</v>
       </c>
       <c r="B645" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C645" t="s">
         <v>27</v>
@@ -16786,7 +16786,7 @@
         <v>1353</v>
       </c>
       <c r="B669" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C669" t="s">
         <v>27</v>
@@ -16851,10 +16851,10 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B673" t="s">
         <v>1597</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1598</v>
       </c>
       <c r="C673" t="s">
         <v>44</v>
@@ -16888,7 +16888,7 @@
         <v>1363</v>
       </c>
       <c r="B675" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C675" t="s">
         <v>44</v>
@@ -16987,7 +16987,7 @@
         <v>1376</v>
       </c>
       <c r="B681" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C681" t="s">
         <v>22</v>
@@ -17038,7 +17038,7 @@
         <v>1382</v>
       </c>
       <c r="B684" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C684" t="s">
         <v>6</v>
@@ -17089,7 +17089,7 @@
         <v>1389</v>
       </c>
       <c r="B687" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C687" t="s">
         <v>18</v>
@@ -17106,7 +17106,7 @@
         <v>1390</v>
       </c>
       <c r="B688" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C688" t="s">
         <v>27</v>
@@ -17290,7 +17290,7 @@
         <v>1413</v>
       </c>
       <c r="B699" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C699" t="s">
         <v>6</v>
@@ -17369,7 +17369,7 @@
         <v>1421</v>
       </c>
       <c r="B704" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C704" t="s">
         <v>34</v>
@@ -17573,7 +17573,7 @@
         <v>1445</v>
       </c>
       <c r="B716" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C716" t="s">
         <v>27</v>
@@ -17641,7 +17641,7 @@
         <v>1453</v>
       </c>
       <c r="B720" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C720" t="s">
         <v>14</v>
@@ -17765,7 +17765,7 @@
         <v>1464</v>
       </c>
       <c r="B728" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C728" t="s">
         <v>27</v>
@@ -17915,7 +17915,7 @@
         <v>1480</v>
       </c>
       <c r="B737" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C737" t="s">
         <v>18</v>
@@ -17963,7 +17963,7 @@
         <v>1484</v>
       </c>
       <c r="B740" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C740" t="s">
         <v>34</v>
@@ -17980,7 +17980,7 @@
         <v>1486</v>
       </c>
       <c r="B741" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C741" t="s">
         <v>6</v>
@@ -18028,7 +18028,7 @@
         <v>1490</v>
       </c>
       <c r="B744" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C744" t="s">
         <v>27</v>
@@ -18079,7 +18079,7 @@
         <v>1495</v>
       </c>
       <c r="B747" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C747" t="s">
         <v>6</v>

--- a/data/list_meps_2019.xlsx
+++ b/data/list_meps_2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1620">
   <si>
     <t>name</t>
   </si>
@@ -1689,9 +1689,6 @@
     <t>Kinga GÁL</t>
   </si>
   <si>
-    <t>1D5Kinga</t>
-  </si>
-  <si>
     <t>Claudia GAMON</t>
   </si>
   <si>
@@ -3067,9 +3064,6 @@
   </si>
   <si>
     <t>Marlene MORTLER</t>
-  </si>
-  <si>
-    <t>MimiMortler</t>
   </si>
   <si>
     <t>Dan-Ștefan MOTREANU</t>
@@ -5735,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="B484" sqref="B484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5753,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5770,7 +5764,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -6202,7 +6196,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -6301,7 +6295,7 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -6369,7 +6363,7 @@
         <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -6431,10 +6425,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B43" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -6451,7 +6445,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
@@ -6700,7 +6694,7 @@
         <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -6734,7 +6728,7 @@
         <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -6785,7 +6779,7 @@
         <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -6833,7 +6827,7 @@
         <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -6901,7 +6895,7 @@
         <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -6935,7 +6929,7 @@
         <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -7113,7 +7107,7 @@
         <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -7229,7 +7223,7 @@
         <v>249</v>
       </c>
       <c r="B91" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C91" t="s">
         <v>44</v>
@@ -7345,7 +7339,7 @@
         <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -7588,10 +7582,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B113" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -7727,7 +7721,7 @@
         <v>313</v>
       </c>
       <c r="B121" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -7996,7 +7990,7 @@
         <v>348</v>
       </c>
       <c r="B137" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C137" t="s">
         <v>44</v>
@@ -8392,7 +8386,7 @@
         <v>401</v>
       </c>
       <c r="B161" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -8443,7 +8437,7 @@
         <v>406</v>
       </c>
       <c r="B164" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -8460,7 +8454,7 @@
         <v>407</v>
       </c>
       <c r="B165" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -8774,7 +8768,7 @@
         <v>444</v>
       </c>
       <c r="B184" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -8876,7 +8870,7 @@
         <v>457</v>
       </c>
       <c r="B190" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -8938,7 +8932,7 @@
         <v>462</v>
       </c>
       <c r="B194" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -8955,7 +8949,7 @@
         <v>464</v>
       </c>
       <c r="B195" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -9303,7 +9297,7 @@
         <v>508</v>
       </c>
       <c r="B216" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C216" t="s">
         <v>22</v>
@@ -9337,7 +9331,7 @@
         <v>511</v>
       </c>
       <c r="B218" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C218" t="s">
         <v>63</v>
@@ -9388,7 +9382,7 @@
         <v>518</v>
       </c>
       <c r="B221" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -9674,7 +9668,7 @@
         <v>554</v>
       </c>
       <c r="B238" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -9690,9 +9684,6 @@
       <c r="A239" t="s">
         <v>555</v>
       </c>
-      <c r="B239" t="s">
-        <v>556</v>
-      </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
@@ -9705,10 +9696,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B240" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
@@ -9722,16 +9713,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B241" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C241" t="s">
         <v>44</v>
       </c>
       <c r="D241" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E241" t="s">
         <v>189</v>
@@ -9739,10 +9730,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>559</v>
+      </c>
+      <c r="B242" t="s">
         <v>560</v>
-      </c>
-      <c r="B242" t="s">
-        <v>561</v>
       </c>
       <c r="C242" t="s">
         <v>18</v>
@@ -9756,10 +9747,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B243" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C243" t="s">
         <v>22</v>
@@ -9773,10 +9764,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>562</v>
+      </c>
+      <c r="B244" t="s">
         <v>563</v>
-      </c>
-      <c r="B244" t="s">
-        <v>564</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -9790,7 +9781,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C245" t="s">
         <v>22</v>
@@ -9804,10 +9795,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>565</v>
+      </c>
+      <c r="B246" t="s">
         <v>566</v>
-      </c>
-      <c r="B246" t="s">
-        <v>567</v>
       </c>
       <c r="C246" t="s">
         <v>22</v>
@@ -9821,10 +9812,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>567</v>
+      </c>
+      <c r="B247" t="s">
         <v>568</v>
-      </c>
-      <c r="B247" t="s">
-        <v>569</v>
       </c>
       <c r="C247" t="s">
         <v>22</v>
@@ -9838,10 +9829,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>569</v>
+      </c>
+      <c r="B248" t="s">
         <v>570</v>
-      </c>
-      <c r="B248" t="s">
-        <v>571</v>
       </c>
       <c r="C248" t="s">
         <v>44</v>
@@ -9855,10 +9846,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>571</v>
+      </c>
+      <c r="B249" t="s">
         <v>572</v>
-      </c>
-      <c r="B249" t="s">
-        <v>573</v>
       </c>
       <c r="C249" t="s">
         <v>18</v>
@@ -9872,7 +9863,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -9886,10 +9877,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>574</v>
+      </c>
+      <c r="B251" t="s">
         <v>575</v>
-      </c>
-      <c r="B251" t="s">
-        <v>576</v>
       </c>
       <c r="C251" t="s">
         <v>34</v>
@@ -9903,10 +9894,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>576</v>
+      </c>
+      <c r="B252" t="s">
         <v>577</v>
-      </c>
-      <c r="B252" t="s">
-        <v>578</v>
       </c>
       <c r="C252" t="s">
         <v>22</v>
@@ -9920,10 +9911,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B253" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
@@ -9937,13 +9928,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C254" t="s">
         <v>63</v>
       </c>
       <c r="D254" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E254" t="s">
         <v>351</v>
@@ -9951,7 +9942,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C255" t="s">
         <v>63</v>
@@ -9965,13 +9956,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
       </c>
       <c r="D256" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E256" t="s">
         <v>60</v>
@@ -9979,16 +9970,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B257" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C257" t="s">
         <v>44</v>
       </c>
       <c r="D257" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E257" t="s">
         <v>101</v>
@@ -9996,10 +9987,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>587</v>
+      </c>
+      <c r="B258" t="s">
         <v>588</v>
-      </c>
-      <c r="B258" t="s">
-        <v>589</v>
       </c>
       <c r="C258" t="s">
         <v>14</v>
@@ -10013,10 +10004,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B259" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C259" t="s">
         <v>44</v>
@@ -10030,10 +10021,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>590</v>
+      </c>
+      <c r="B260" t="s">
         <v>591</v>
-      </c>
-      <c r="B260" t="s">
-        <v>592</v>
       </c>
       <c r="C260" t="s">
         <v>34</v>
@@ -10047,7 +10038,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -10061,10 +10052,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>593</v>
+      </c>
+      <c r="B262" t="s">
         <v>594</v>
-      </c>
-      <c r="B262" t="s">
-        <v>595</v>
       </c>
       <c r="C262" t="s">
         <v>22</v>
@@ -10078,10 +10069,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>595</v>
+      </c>
+      <c r="B263" t="s">
         <v>596</v>
-      </c>
-      <c r="B263" t="s">
-        <v>597</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
@@ -10095,7 +10086,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -10109,10 +10100,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B265" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C265" t="s">
         <v>44</v>
@@ -10126,16 +10117,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B266" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C266" t="s">
         <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E266" t="s">
         <v>40</v>
@@ -10143,27 +10134,27 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B267" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C267" t="s">
         <v>44</v>
       </c>
       <c r="D267" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E267" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>606</v>
+      </c>
+      <c r="B268" t="s">
         <v>607</v>
-      </c>
-      <c r="B268" t="s">
-        <v>608</v>
       </c>
       <c r="C268" t="s">
         <v>22</v>
@@ -10177,10 +10168,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>608</v>
+      </c>
+      <c r="B269" t="s">
         <v>609</v>
-      </c>
-      <c r="B269" t="s">
-        <v>610</v>
       </c>
       <c r="C269" t="s">
         <v>22</v>
@@ -10194,10 +10185,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>610</v>
+      </c>
+      <c r="B270" t="s">
         <v>611</v>
-      </c>
-      <c r="B270" t="s">
-        <v>612</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -10211,10 +10202,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B271" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C271" t="s">
         <v>18</v>
@@ -10228,10 +10219,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>613</v>
+      </c>
+      <c r="B272" t="s">
         <v>614</v>
-      </c>
-      <c r="B272" t="s">
-        <v>615</v>
       </c>
       <c r="C272" t="s">
         <v>22</v>
@@ -10245,16 +10236,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B273" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C273" t="s">
         <v>34</v>
       </c>
       <c r="D273" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E273" t="s">
         <v>219</v>
@@ -10262,10 +10253,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>617</v>
+      </c>
+      <c r="B274" t="s">
         <v>618</v>
-      </c>
-      <c r="B274" t="s">
-        <v>619</v>
       </c>
       <c r="C274" t="s">
         <v>22</v>
@@ -10279,10 +10270,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>619</v>
+      </c>
+      <c r="B275" t="s">
         <v>620</v>
-      </c>
-      <c r="B275" t="s">
-        <v>621</v>
       </c>
       <c r="C275" t="s">
         <v>18</v>
@@ -10296,16 +10287,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B276" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C276" t="s">
         <v>44</v>
       </c>
       <c r="D276" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E276" t="s">
         <v>233</v>
@@ -10313,10 +10304,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>623</v>
+      </c>
+      <c r="B277" t="s">
         <v>624</v>
-      </c>
-      <c r="B277" t="s">
-        <v>625</v>
       </c>
       <c r="C277" t="s">
         <v>44</v>
@@ -10330,10 +10321,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>625</v>
+      </c>
+      <c r="B278" t="s">
         <v>626</v>
-      </c>
-      <c r="B278" t="s">
-        <v>627</v>
       </c>
       <c r="C278" t="s">
         <v>22</v>
@@ -10347,10 +10338,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>627</v>
+      </c>
+      <c r="B279" t="s">
         <v>628</v>
-      </c>
-      <c r="B279" t="s">
-        <v>629</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -10364,13 +10355,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C280" t="s">
         <v>34</v>
       </c>
       <c r="D280" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E280" t="s">
         <v>53</v>
@@ -10378,7 +10369,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C281" t="s">
         <v>44</v>
@@ -10392,10 +10383,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>632</v>
+      </c>
+      <c r="B282" t="s">
         <v>633</v>
-      </c>
-      <c r="B282" t="s">
-        <v>634</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -10409,16 +10400,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B283" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C283" t="s">
         <v>63</v>
       </c>
       <c r="D283" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E283" t="s">
         <v>53</v>
@@ -10426,10 +10417,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>637</v>
+      </c>
+      <c r="B284" t="s">
         <v>638</v>
-      </c>
-      <c r="B284" t="s">
-        <v>639</v>
       </c>
       <c r="C284" t="s">
         <v>22</v>
@@ -10443,16 +10434,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B285" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E285" t="s">
         <v>87</v>
@@ -10460,7 +10451,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -10474,7 +10465,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -10488,10 +10479,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>644</v>
+      </c>
+      <c r="B288" t="s">
         <v>645</v>
-      </c>
-      <c r="B288" t="s">
-        <v>646</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
@@ -10505,10 +10496,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>646</v>
+      </c>
+      <c r="B289" t="s">
         <v>647</v>
-      </c>
-      <c r="B289" t="s">
-        <v>648</v>
       </c>
       <c r="C289" t="s">
         <v>44</v>
@@ -10522,10 +10513,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B290" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C290" t="s">
         <v>34</v>
@@ -10539,13 +10530,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C291" t="s">
         <v>18</v>
       </c>
       <c r="D291" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E291" t="s">
         <v>189</v>
@@ -10553,10 +10544,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B292" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
@@ -10570,24 +10561,24 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C293" t="s">
         <v>18</v>
       </c>
       <c r="D293" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E293" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>655</v>
+      </c>
+      <c r="B294" t="s">
         <v>656</v>
-      </c>
-      <c r="B294" t="s">
-        <v>657</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -10601,16 +10592,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B295" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
       </c>
       <c r="D295" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E295" t="s">
         <v>33</v>
@@ -10618,27 +10609,27 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B296" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
       </c>
       <c r="D296" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E296" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>663</v>
+      </c>
+      <c r="B297" t="s">
         <v>664</v>
-      </c>
-      <c r="B297" t="s">
-        <v>665</v>
       </c>
       <c r="C297" t="s">
         <v>14</v>
@@ -10652,10 +10643,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>665</v>
+      </c>
+      <c r="B298" t="s">
         <v>666</v>
-      </c>
-      <c r="B298" t="s">
-        <v>667</v>
       </c>
       <c r="C298" t="s">
         <v>34</v>
@@ -10669,24 +10660,24 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B299" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C299" t="s">
         <v>34</v>
       </c>
       <c r="D299" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E299" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -10700,10 +10691,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>671</v>
+      </c>
+      <c r="B301" t="s">
         <v>672</v>
-      </c>
-      <c r="B301" t="s">
-        <v>673</v>
       </c>
       <c r="C301" t="s">
         <v>44</v>
@@ -10717,16 +10708,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B302" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C302" t="s">
         <v>63</v>
       </c>
       <c r="D302" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E302" t="s">
         <v>123</v>
@@ -10734,10 +10725,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
+        <v>676</v>
+      </c>
+      <c r="B303" t="s">
         <v>677</v>
-      </c>
-      <c r="B303" t="s">
-        <v>678</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
@@ -10751,16 +10742,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B304" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C304" t="s">
         <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E304" t="s">
         <v>189</v>
@@ -10768,24 +10759,24 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B305" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C305" t="s">
         <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E305" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -10799,7 +10790,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C307" t="s">
         <v>34</v>
@@ -10813,16 +10804,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B308" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E308" t="s">
         <v>5</v>
@@ -10830,7 +10821,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -10844,7 +10835,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
         <v>44</v>
@@ -10858,10 +10849,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>690</v>
+      </c>
+      <c r="B311" t="s">
         <v>691</v>
-      </c>
-      <c r="B311" t="s">
-        <v>692</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -10875,16 +10866,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B312" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C312" t="s">
         <v>44</v>
       </c>
       <c r="D312" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E312" t="s">
         <v>172</v>
@@ -10892,16 +10883,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B313" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C313" t="s">
         <v>34</v>
       </c>
       <c r="D313" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E313" t="s">
         <v>50</v>
@@ -10909,16 +10900,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B314" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
       </c>
       <c r="D314" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E314" t="s">
         <v>87</v>
@@ -10926,10 +10917,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B315" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C315" t="s">
         <v>22</v>
@@ -10943,10 +10934,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B316" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C316" t="s">
         <v>44</v>
@@ -10960,10 +10951,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>703</v>
+      </c>
+      <c r="B317" t="s">
         <v>704</v>
-      </c>
-      <c r="B317" t="s">
-        <v>705</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -10977,10 +10968,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
+        <v>705</v>
+      </c>
+      <c r="B318" t="s">
         <v>706</v>
-      </c>
-      <c r="B318" t="s">
-        <v>707</v>
       </c>
       <c r="C318" t="s">
         <v>44</v>
@@ -10994,10 +10985,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>707</v>
+      </c>
+      <c r="B319" t="s">
         <v>708</v>
-      </c>
-      <c r="B319" t="s">
-        <v>709</v>
       </c>
       <c r="C319" t="s">
         <v>22</v>
@@ -11011,13 +11002,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C320" t="s">
         <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E320" t="s">
         <v>9</v>
@@ -11025,10 +11016,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>711</v>
+      </c>
+      <c r="B321" t="s">
         <v>712</v>
-      </c>
-      <c r="B321" t="s">
-        <v>713</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -11042,27 +11033,27 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>713</v>
+      </c>
+      <c r="B322" t="s">
         <v>714</v>
-      </c>
-      <c r="B322" t="s">
-        <v>715</v>
       </c>
       <c r="C322" t="s">
         <v>18</v>
       </c>
       <c r="D322" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E322" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>715</v>
+      </c>
+      <c r="B323" t="s">
         <v>716</v>
-      </c>
-      <c r="B323" t="s">
-        <v>717</v>
       </c>
       <c r="C323" t="s">
         <v>44</v>
@@ -11076,16 +11067,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B324" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C324" t="s">
         <v>44</v>
       </c>
       <c r="D324" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E324" t="s">
         <v>56</v>
@@ -11093,10 +11084,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B325" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C325" t="s">
         <v>22</v>
@@ -11110,16 +11101,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B326" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C326" t="s">
         <v>44</v>
       </c>
       <c r="D326" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E326" t="s">
         <v>123</v>
@@ -11127,10 +11118,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>724</v>
+      </c>
+      <c r="B327" t="s">
         <v>725</v>
-      </c>
-      <c r="B327" t="s">
-        <v>726</v>
       </c>
       <c r="C327" t="s">
         <v>34</v>
@@ -11144,10 +11135,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>726</v>
+      </c>
+      <c r="B328" t="s">
         <v>727</v>
-      </c>
-      <c r="B328" t="s">
-        <v>728</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -11161,13 +11152,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C329" t="s">
         <v>34</v>
       </c>
       <c r="D329" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E329" t="s">
         <v>117</v>
@@ -11175,16 +11166,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B330" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C330" t="s">
         <v>27</v>
       </c>
       <c r="D330" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E330" t="s">
         <v>5</v>
@@ -11192,7 +11183,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C331" t="s">
         <v>18</v>
@@ -11206,10 +11197,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>734</v>
+      </c>
+      <c r="B332" t="s">
         <v>735</v>
-      </c>
-      <c r="B332" t="s">
-        <v>736</v>
       </c>
       <c r="C332" t="s">
         <v>18</v>
@@ -11223,10 +11214,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>736</v>
+      </c>
+      <c r="B333" t="s">
         <v>737</v>
-      </c>
-      <c r="B333" t="s">
-        <v>738</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -11240,16 +11231,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>738</v>
+      </c>
+      <c r="B334" t="s">
         <v>739</v>
-      </c>
-      <c r="B334" t="s">
-        <v>740</v>
       </c>
       <c r="C334" t="s">
         <v>6</v>
       </c>
       <c r="D334" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E334" t="s">
         <v>5</v>
@@ -11257,10 +11248,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B335" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C335" t="s">
         <v>22</v>
@@ -11274,10 +11265,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>741</v>
+      </c>
+      <c r="B336" t="s">
         <v>742</v>
-      </c>
-      <c r="B336" t="s">
-        <v>743</v>
       </c>
       <c r="C336" t="s">
         <v>22</v>
@@ -11291,7 +11282,7 @@
     </row>
     <row r="337" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>14</v>
@@ -11305,10 +11296,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
+        <v>744</v>
+      </c>
+      <c r="B338" t="s">
         <v>745</v>
-      </c>
-      <c r="B338" t="s">
-        <v>746</v>
       </c>
       <c r="C338" t="s">
         <v>18</v>
@@ -11322,16 +11313,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>746</v>
+      </c>
+      <c r="B339" t="s">
         <v>747</v>
-      </c>
-      <c r="B339" t="s">
-        <v>748</v>
       </c>
       <c r="C339" t="s">
         <v>44</v>
       </c>
       <c r="D339" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E339" t="s">
         <v>233</v>
@@ -11339,16 +11330,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B340" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
       </c>
       <c r="D340" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E340" t="s">
         <v>117</v>
@@ -11356,10 +11347,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>750</v>
+      </c>
+      <c r="B341" t="s">
         <v>751</v>
-      </c>
-      <c r="B341" t="s">
-        <v>752</v>
       </c>
       <c r="C341" t="s">
         <v>27</v>
@@ -11373,10 +11364,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>752</v>
+      </c>
+      <c r="B342" t="s">
         <v>753</v>
-      </c>
-      <c r="B342" t="s">
-        <v>754</v>
       </c>
       <c r="C342" t="s">
         <v>27</v>
@@ -11390,10 +11381,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>754</v>
+      </c>
+      <c r="B343" t="s">
         <v>755</v>
-      </c>
-      <c r="B343" t="s">
-        <v>756</v>
       </c>
       <c r="C343" t="s">
         <v>18</v>
@@ -11407,16 +11398,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B344" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C344" t="s">
         <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E344" t="s">
         <v>75</v>
@@ -11424,13 +11415,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
       </c>
       <c r="D345" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E345" t="s">
         <v>5</v>
@@ -11438,16 +11429,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B346" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C346" t="s">
         <v>22</v>
       </c>
       <c r="D346" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E346" t="s">
         <v>83</v>
@@ -11455,16 +11446,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B347" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
       </c>
       <c r="D347" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E347" t="s">
         <v>56</v>
@@ -11472,7 +11463,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C348" t="s">
         <v>22</v>
@@ -11486,16 +11477,16 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B349" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
       </c>
       <c r="D349" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E349" t="s">
         <v>9</v>
@@ -11503,10 +11494,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
+        <v>770</v>
+      </c>
+      <c r="B350" t="s">
         <v>771</v>
-      </c>
-      <c r="B350" t="s">
-        <v>772</v>
       </c>
       <c r="C350" t="s">
         <v>27</v>
@@ -11520,10 +11511,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>772</v>
+      </c>
+      <c r="B351" t="s">
         <v>773</v>
-      </c>
-      <c r="B351" t="s">
-        <v>774</v>
       </c>
       <c r="C351" t="s">
         <v>6</v>
@@ -11537,10 +11528,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>774</v>
+      </c>
+      <c r="B352" t="s">
         <v>775</v>
-      </c>
-      <c r="B352" t="s">
-        <v>776</v>
       </c>
       <c r="C352" t="s">
         <v>44</v>
@@ -11554,16 +11545,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B353" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C353" t="s">
         <v>44</v>
       </c>
       <c r="D353" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E353" t="s">
         <v>50</v>
@@ -11571,10 +11562,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B354" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -11588,27 +11579,27 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B355" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C355" t="s">
         <v>44</v>
       </c>
       <c r="D355" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E355" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>782</v>
+      </c>
+      <c r="B356" t="s">
         <v>783</v>
-      </c>
-      <c r="B356" t="s">
-        <v>784</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -11622,16 +11613,16 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B357" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C357" t="s">
         <v>44</v>
       </c>
       <c r="D357" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E357" t="s">
         <v>310</v>
@@ -11639,16 +11630,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B358" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C358" t="s">
         <v>44</v>
       </c>
       <c r="D358" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E358" t="s">
         <v>40</v>
@@ -11656,10 +11647,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
+        <v>790</v>
+      </c>
+      <c r="B359" t="s">
         <v>791</v>
-      </c>
-      <c r="B359" t="s">
-        <v>792</v>
       </c>
       <c r="C359" t="s">
         <v>34</v>
@@ -11673,10 +11664,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
+        <v>792</v>
+      </c>
+      <c r="B360" t="s">
         <v>793</v>
-      </c>
-      <c r="B360" t="s">
-        <v>794</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -11690,16 +11681,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>794</v>
+      </c>
+      <c r="B361" t="s">
         <v>795</v>
-      </c>
-      <c r="B361" t="s">
-        <v>796</v>
       </c>
       <c r="C361" t="s">
         <v>27</v>
       </c>
       <c r="D361" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E361" t="s">
         <v>5</v>
@@ -11707,10 +11698,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
+        <v>796</v>
+      </c>
+      <c r="B362" t="s">
         <v>797</v>
-      </c>
-      <c r="B362" t="s">
-        <v>798</v>
       </c>
       <c r="C362" t="s">
         <v>22</v>
@@ -11724,16 +11715,16 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
+        <v>798</v>
+      </c>
+      <c r="B363" t="s">
         <v>799</v>
-      </c>
-      <c r="B363" t="s">
-        <v>800</v>
       </c>
       <c r="C363" t="s">
         <v>63</v>
       </c>
       <c r="D363" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E363" t="s">
         <v>351</v>
@@ -11741,10 +11732,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B364" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C364" t="s">
         <v>27</v>
@@ -11758,7 +11749,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C365" t="s">
         <v>44</v>
@@ -11772,10 +11763,10 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
+        <v>802</v>
+      </c>
+      <c r="B366" t="s">
         <v>803</v>
-      </c>
-      <c r="B366" t="s">
-        <v>804</v>
       </c>
       <c r="C366" t="s">
         <v>22</v>
@@ -11789,16 +11780,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B367" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C367" t="s">
         <v>18</v>
       </c>
       <c r="D367" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E367" t="s">
         <v>113</v>
@@ -11806,10 +11797,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B368" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C368" t="s">
         <v>22</v>
@@ -11823,16 +11814,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B369" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E369" t="s">
         <v>50</v>
@@ -11840,10 +11831,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
+        <v>811</v>
+      </c>
+      <c r="B370" t="s">
         <v>812</v>
-      </c>
-      <c r="B370" t="s">
-        <v>813</v>
       </c>
       <c r="C370" t="s">
         <v>63</v>
@@ -11857,16 +11848,16 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
+        <v>813</v>
+      </c>
+      <c r="B371" t="s">
         <v>814</v>
-      </c>
-      <c r="B371" t="s">
-        <v>815</v>
       </c>
       <c r="C371" t="s">
         <v>34</v>
       </c>
       <c r="D371" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E371" t="s">
         <v>219</v>
@@ -11874,13 +11865,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C372" t="s">
         <v>14</v>
       </c>
       <c r="D372" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E372" t="s">
         <v>243</v>
@@ -11888,13 +11879,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C373" t="s">
         <v>63</v>
       </c>
       <c r="D373" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E373" t="s">
         <v>219</v>
@@ -11902,13 +11893,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C374" t="s">
         <v>14</v>
       </c>
       <c r="D374" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E374" t="s">
         <v>75</v>
@@ -11916,10 +11907,10 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
+        <v>821</v>
+      </c>
+      <c r="B375" t="s">
         <v>822</v>
-      </c>
-      <c r="B375" t="s">
-        <v>823</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
@@ -11933,7 +11924,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C376" t="s">
         <v>27</v>
@@ -11947,10 +11938,10 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
+        <v>824</v>
+      </c>
+      <c r="B377" t="s">
         <v>825</v>
-      </c>
-      <c r="B377" t="s">
-        <v>826</v>
       </c>
       <c r="C377" t="s">
         <v>44</v>
@@ -11964,10 +11955,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
+        <v>826</v>
+      </c>
+      <c r="B378" t="s">
         <v>827</v>
-      </c>
-      <c r="B378" t="s">
-        <v>828</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -11981,7 +11972,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C379" t="s">
         <v>22</v>
@@ -11995,10 +11986,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
+        <v>829</v>
+      </c>
+      <c r="B380" t="s">
         <v>830</v>
-      </c>
-      <c r="B380" t="s">
-        <v>831</v>
       </c>
       <c r="C380" t="s">
         <v>63</v>
@@ -12012,10 +12003,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
+        <v>831</v>
+      </c>
+      <c r="B381" t="s">
         <v>832</v>
-      </c>
-      <c r="B381" t="s">
-        <v>833</v>
       </c>
       <c r="C381" t="s">
         <v>63</v>
@@ -12029,7 +12020,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C382" t="s">
         <v>44</v>
@@ -12043,10 +12034,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>834</v>
+      </c>
+      <c r="B383" t="s">
         <v>835</v>
-      </c>
-      <c r="B383" t="s">
-        <v>836</v>
       </c>
       <c r="C383" t="s">
         <v>6</v>
@@ -12060,10 +12051,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
+        <v>836</v>
+      </c>
+      <c r="B384" t="s">
         <v>837</v>
-      </c>
-      <c r="B384" t="s">
-        <v>838</v>
       </c>
       <c r="C384" t="s">
         <v>18</v>
@@ -12077,10 +12068,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B385" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C385" t="s">
         <v>27</v>
@@ -12094,10 +12085,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>839</v>
+      </c>
+      <c r="B386" t="s">
         <v>840</v>
-      </c>
-      <c r="B386" t="s">
-        <v>841</v>
       </c>
       <c r="C386" t="s">
         <v>22</v>
@@ -12111,7 +12102,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C387" t="s">
         <v>27</v>
@@ -12125,16 +12116,16 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>842</v>
+      </c>
+      <c r="B388" t="s">
         <v>843</v>
-      </c>
-      <c r="B388" t="s">
-        <v>844</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
       </c>
       <c r="D388" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E388" t="s">
         <v>117</v>
@@ -12142,13 +12133,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C389" t="s">
         <v>34</v>
       </c>
       <c r="D389" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E389" t="s">
         <v>50</v>
@@ -12156,10 +12147,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
+        <v>845</v>
+      </c>
+      <c r="B390" t="s">
         <v>846</v>
-      </c>
-      <c r="B390" t="s">
-        <v>847</v>
       </c>
       <c r="C390" t="s">
         <v>18</v>
@@ -12173,27 +12164,27 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
+        <v>847</v>
+      </c>
+      <c r="B391" t="s">
         <v>848</v>
-      </c>
-      <c r="B391" t="s">
-        <v>849</v>
       </c>
       <c r="C391" t="s">
         <v>22</v>
       </c>
       <c r="D391" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E391" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B392" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C392" t="s">
         <v>27</v>
@@ -12207,10 +12198,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B393" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -12224,10 +12215,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>851</v>
+      </c>
+      <c r="B394" t="s">
         <v>852</v>
-      </c>
-      <c r="B394" t="s">
-        <v>853</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -12241,10 +12232,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>853</v>
+      </c>
+      <c r="B395" t="s">
         <v>854</v>
-      </c>
-      <c r="B395" t="s">
-        <v>855</v>
       </c>
       <c r="C395" t="s">
         <v>44</v>
@@ -12258,10 +12249,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
+        <v>855</v>
+      </c>
+      <c r="B396" t="s">
         <v>856</v>
-      </c>
-      <c r="B396" t="s">
-        <v>857</v>
       </c>
       <c r="C396" t="s">
         <v>34</v>
@@ -12275,13 +12266,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C397" t="s">
         <v>14</v>
       </c>
       <c r="D397" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E397" t="s">
         <v>75</v>
@@ -12289,16 +12280,16 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
+        <v>858</v>
+      </c>
+      <c r="B398" t="s">
         <v>859</v>
-      </c>
-      <c r="B398" t="s">
-        <v>860</v>
       </c>
       <c r="C398" t="s">
         <v>22</v>
       </c>
       <c r="D398" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E398" t="s">
         <v>40</v>
@@ -12306,10 +12297,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
+        <v>860</v>
+      </c>
+      <c r="B399" t="s">
         <v>861</v>
-      </c>
-      <c r="B399" t="s">
-        <v>862</v>
       </c>
       <c r="C399" t="s">
         <v>34</v>
@@ -12323,10 +12314,10 @@
     </row>
     <row r="400" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>18</v>
@@ -12340,10 +12331,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
+        <v>864</v>
+      </c>
+      <c r="B401" t="s">
         <v>865</v>
-      </c>
-      <c r="B401" t="s">
-        <v>866</v>
       </c>
       <c r="C401" t="s">
         <v>22</v>
@@ -12357,10 +12348,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>866</v>
+      </c>
+      <c r="B402" t="s">
         <v>867</v>
-      </c>
-      <c r="B402" t="s">
-        <v>868</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -12374,7 +12365,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C403" t="s">
         <v>34</v>
@@ -12388,10 +12379,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B404" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C404" t="s">
         <v>18</v>
@@ -12405,16 +12396,16 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B405" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C405" t="s">
         <v>22</v>
       </c>
       <c r="D405" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E405" t="s">
         <v>40</v>
@@ -12422,10 +12413,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>873</v>
+      </c>
+      <c r="B406" t="s">
         <v>874</v>
-      </c>
-      <c r="B406" t="s">
-        <v>875</v>
       </c>
       <c r="C406" t="s">
         <v>18</v>
@@ -12439,10 +12430,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
+        <v>875</v>
+      </c>
+      <c r="B407" t="s">
         <v>876</v>
-      </c>
-      <c r="B407" t="s">
-        <v>877</v>
       </c>
       <c r="C407" t="s">
         <v>18</v>
@@ -12456,16 +12447,16 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B408" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C408" t="s">
         <v>6</v>
       </c>
       <c r="D408" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E408" t="s">
         <v>50</v>
@@ -12473,7 +12464,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -12487,10 +12478,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B410" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C410" t="s">
         <v>22</v>
@@ -12504,10 +12495,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>881</v>
+      </c>
+      <c r="B411" t="s">
         <v>882</v>
-      </c>
-      <c r="B411" t="s">
-        <v>883</v>
       </c>
       <c r="C411" t="s">
         <v>6</v>
@@ -12521,10 +12512,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>883</v>
+      </c>
+      <c r="B412" t="s">
         <v>884</v>
-      </c>
-      <c r="B412" t="s">
-        <v>885</v>
       </c>
       <c r="C412" t="s">
         <v>6</v>
@@ -12538,10 +12529,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B413" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C413" t="s">
         <v>22</v>
@@ -12555,10 +12546,10 @@
     </row>
     <row r="414" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>887</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>888</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>6</v>
@@ -12572,10 +12563,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B415" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C415" t="s">
         <v>18</v>
@@ -12589,7 +12580,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C416" t="s">
         <v>6</v>
@@ -12603,10 +12594,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>890</v>
+      </c>
+      <c r="B417" t="s">
         <v>891</v>
-      </c>
-      <c r="B417" t="s">
-        <v>892</v>
       </c>
       <c r="C417" t="s">
         <v>18</v>
@@ -12620,10 +12611,10 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
+        <v>892</v>
+      </c>
+      <c r="B418" t="s">
         <v>893</v>
-      </c>
-      <c r="B418" t="s">
-        <v>894</v>
       </c>
       <c r="C418" t="s">
         <v>44</v>
@@ -12637,10 +12628,10 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>894</v>
+      </c>
+      <c r="B419" t="s">
         <v>895</v>
-      </c>
-      <c r="B419" t="s">
-        <v>896</v>
       </c>
       <c r="C419" t="s">
         <v>44</v>
@@ -12654,16 +12645,16 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B420" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C420" t="s">
         <v>44</v>
       </c>
       <c r="D420" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E420" t="s">
         <v>33</v>
@@ -12671,10 +12662,10 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
+        <v>899</v>
+      </c>
+      <c r="B421" t="s">
         <v>900</v>
-      </c>
-      <c r="B421" t="s">
-        <v>901</v>
       </c>
       <c r="C421" t="s">
         <v>14</v>
@@ -12688,16 +12679,16 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B422" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C422" t="s">
         <v>22</v>
       </c>
       <c r="D422" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E422" t="s">
         <v>26</v>
@@ -12705,10 +12696,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B423" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C423" t="s">
         <v>22</v>
@@ -12722,10 +12713,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>904</v>
+      </c>
+      <c r="B424" t="s">
         <v>905</v>
-      </c>
-      <c r="B424" t="s">
-        <v>906</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
@@ -12739,10 +12730,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>906</v>
+      </c>
+      <c r="B425" t="s">
         <v>907</v>
-      </c>
-      <c r="B425" t="s">
-        <v>908</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -12756,10 +12747,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
+        <v>908</v>
+      </c>
+      <c r="B426" t="s">
         <v>909</v>
-      </c>
-      <c r="B426" t="s">
-        <v>910</v>
       </c>
       <c r="C426" t="s">
         <v>14</v>
@@ -12773,10 +12764,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>910</v>
+      </c>
+      <c r="B427" t="s">
         <v>911</v>
-      </c>
-      <c r="B427" t="s">
-        <v>912</v>
       </c>
       <c r="C427" t="s">
         <v>22</v>
@@ -12790,10 +12781,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B428" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -12807,13 +12798,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C429" t="s">
         <v>27</v>
       </c>
       <c r="D429" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E429" t="s">
         <v>50</v>
@@ -12821,16 +12812,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B430" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C430" t="s">
         <v>6</v>
       </c>
       <c r="D430" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E430" t="s">
         <v>79</v>
@@ -12838,10 +12829,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>918</v>
+      </c>
+      <c r="B431" t="s">
         <v>919</v>
-      </c>
-      <c r="B431" t="s">
-        <v>920</v>
       </c>
       <c r="C431" t="s">
         <v>6</v>
@@ -12855,10 +12846,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
+        <v>920</v>
+      </c>
+      <c r="B432" t="s">
         <v>921</v>
-      </c>
-      <c r="B432" t="s">
-        <v>922</v>
       </c>
       <c r="C432" t="s">
         <v>6</v>
@@ -12872,16 +12863,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
+        <v>922</v>
+      </c>
+      <c r="B433" t="s">
         <v>923</v>
-      </c>
-      <c r="B433" t="s">
-        <v>924</v>
       </c>
       <c r="C433" t="s">
         <v>27</v>
       </c>
       <c r="D433" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E433" t="s">
         <v>33</v>
@@ -12889,10 +12880,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
+        <v>924</v>
+      </c>
+      <c r="B434" t="s">
         <v>925</v>
-      </c>
-      <c r="B434" t="s">
-        <v>926</v>
       </c>
       <c r="C434" t="s">
         <v>34</v>
@@ -12906,16 +12897,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B435" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C435" t="s">
         <v>18</v>
       </c>
       <c r="D435" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E435" t="s">
         <v>83</v>
@@ -12923,10 +12914,10 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
+        <v>929</v>
+      </c>
+      <c r="B436" t="s">
         <v>930</v>
-      </c>
-      <c r="B436" t="s">
-        <v>931</v>
       </c>
       <c r="C436" t="s">
         <v>22</v>
@@ -12940,10 +12931,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
+        <v>931</v>
+      </c>
+      <c r="B437" t="s">
         <v>932</v>
-      </c>
-      <c r="B437" t="s">
-        <v>933</v>
       </c>
       <c r="C437" t="s">
         <v>34</v>
@@ -12957,7 +12948,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C438" t="s">
         <v>22</v>
@@ -12971,10 +12962,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B439" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -12988,10 +12979,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
+        <v>935</v>
+      </c>
+      <c r="B440" t="s">
         <v>936</v>
-      </c>
-      <c r="B440" t="s">
-        <v>937</v>
       </c>
       <c r="C440" t="s">
         <v>22</v>
@@ -13005,10 +12996,10 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
+        <v>937</v>
+      </c>
+      <c r="B441" t="s">
         <v>938</v>
-      </c>
-      <c r="B441" t="s">
-        <v>939</v>
       </c>
       <c r="C441" t="s">
         <v>22</v>
@@ -13022,13 +13013,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
       </c>
       <c r="D442" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E442" t="s">
         <v>123</v>
@@ -13036,10 +13027,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
+        <v>941</v>
+      </c>
+      <c r="B443" t="s">
         <v>942</v>
-      </c>
-      <c r="B443" t="s">
-        <v>943</v>
       </c>
       <c r="C443" t="s">
         <v>6</v>
@@ -13053,10 +13044,10 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
+        <v>943</v>
+      </c>
+      <c r="B444" t="s">
         <v>944</v>
-      </c>
-      <c r="B444" t="s">
-        <v>945</v>
       </c>
       <c r="C444" t="s">
         <v>18</v>
@@ -13070,10 +13061,10 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
+        <v>945</v>
+      </c>
+      <c r="B445" t="s">
         <v>946</v>
-      </c>
-      <c r="B445" t="s">
-        <v>947</v>
       </c>
       <c r="C445" t="s">
         <v>6</v>
@@ -13087,10 +13078,10 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
+        <v>947</v>
+      </c>
+      <c r="B446" t="s">
         <v>948</v>
-      </c>
-      <c r="B446" t="s">
-        <v>949</v>
       </c>
       <c r="C446" t="s">
         <v>34</v>
@@ -13104,10 +13095,10 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B447" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C447" t="s">
         <v>22</v>
@@ -13121,10 +13112,10 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
+        <v>950</v>
+      </c>
+      <c r="B448" t="s">
         <v>951</v>
-      </c>
-      <c r="B448" t="s">
-        <v>952</v>
       </c>
       <c r="C448" t="s">
         <v>22</v>
@@ -13138,10 +13129,10 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
+        <v>952</v>
+      </c>
+      <c r="B449" t="s">
         <v>953</v>
-      </c>
-      <c r="B449" t="s">
-        <v>954</v>
       </c>
       <c r="C449" t="s">
         <v>6</v>
@@ -13155,16 +13146,16 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
+        <v>954</v>
+      </c>
+      <c r="B450" t="s">
         <v>955</v>
-      </c>
-      <c r="B450" t="s">
-        <v>956</v>
       </c>
       <c r="C450" t="s">
         <v>63</v>
       </c>
       <c r="D450" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E450" t="s">
         <v>53</v>
@@ -13172,10 +13163,10 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B451" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C451" t="s">
         <v>22</v>
@@ -13189,10 +13180,10 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
+        <v>957</v>
+      </c>
+      <c r="B452" t="s">
         <v>958</v>
-      </c>
-      <c r="B452" t="s">
-        <v>959</v>
       </c>
       <c r="C452" t="s">
         <v>63</v>
@@ -13206,16 +13197,16 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B453" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C453" t="s">
         <v>22</v>
       </c>
       <c r="D453" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E453" t="s">
         <v>351</v>
@@ -13223,10 +13214,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
+        <v>961</v>
+      </c>
+      <c r="B454" t="s">
         <v>962</v>
-      </c>
-      <c r="B454" t="s">
-        <v>963</v>
       </c>
       <c r="C454" t="s">
         <v>44</v>
@@ -13240,10 +13231,10 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
+        <v>963</v>
+      </c>
+      <c r="B455" t="s">
         <v>964</v>
-      </c>
-      <c r="B455" t="s">
-        <v>965</v>
       </c>
       <c r="C455" t="s">
         <v>6</v>
@@ -13257,16 +13248,16 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B456" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C456" t="s">
         <v>18</v>
       </c>
       <c r="D456" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E456" t="s">
         <v>189</v>
@@ -13274,10 +13265,10 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
+        <v>965</v>
+      </c>
+      <c r="B457" t="s">
         <v>966</v>
-      </c>
-      <c r="B457" t="s">
-        <v>967</v>
       </c>
       <c r="C457" t="s">
         <v>27</v>
@@ -13291,13 +13282,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
       </c>
       <c r="D458" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E458" t="s">
         <v>117</v>
@@ -13305,7 +13296,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
@@ -13319,13 +13310,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C460" t="s">
         <v>27</v>
       </c>
       <c r="D460" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E460" t="s">
         <v>56</v>
@@ -13333,16 +13324,16 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B461" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C461" t="s">
         <v>44</v>
       </c>
       <c r="D461" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E461" t="s">
         <v>113</v>
@@ -13350,10 +13341,10 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
+        <v>973</v>
+      </c>
+      <c r="B462" t="s">
         <v>974</v>
-      </c>
-      <c r="B462" t="s">
-        <v>975</v>
       </c>
       <c r="C462" t="s">
         <v>18</v>
@@ -13367,16 +13358,16 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B463" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C463" t="s">
         <v>6</v>
       </c>
       <c r="D463" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E463" t="s">
         <v>53</v>
@@ -13384,10 +13375,10 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
+        <v>977</v>
+      </c>
+      <c r="B464" t="s">
         <v>978</v>
-      </c>
-      <c r="B464" t="s">
-        <v>979</v>
       </c>
       <c r="C464" t="s">
         <v>6</v>
@@ -13401,24 +13392,24 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C465" t="s">
         <v>34</v>
       </c>
       <c r="D465" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E465" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
+        <v>981</v>
+      </c>
+      <c r="B466" t="s">
         <v>982</v>
-      </c>
-      <c r="B466" t="s">
-        <v>983</v>
       </c>
       <c r="C466" t="s">
         <v>18</v>
@@ -13432,10 +13423,10 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
+        <v>983</v>
+      </c>
+      <c r="B467" t="s">
         <v>984</v>
-      </c>
-      <c r="B467" t="s">
-        <v>985</v>
       </c>
       <c r="C467" t="s">
         <v>63</v>
@@ -13449,10 +13440,10 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
+        <v>985</v>
+      </c>
+      <c r="B468" t="s">
         <v>986</v>
-      </c>
-      <c r="B468" t="s">
-        <v>987</v>
       </c>
       <c r="C468" t="s">
         <v>44</v>
@@ -13466,16 +13457,16 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
+        <v>987</v>
+      </c>
+      <c r="B469" t="s">
         <v>988</v>
-      </c>
-      <c r="B469" t="s">
-        <v>989</v>
       </c>
       <c r="C469" t="s">
         <v>22</v>
       </c>
       <c r="D469" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E469" t="s">
         <v>83</v>
@@ -13483,10 +13474,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B470" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C470" t="s">
         <v>6</v>
@@ -13500,7 +13491,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C471" t="s">
         <v>6</v>
@@ -13514,10 +13505,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
+        <v>991</v>
+      </c>
+      <c r="B472" t="s">
         <v>992</v>
-      </c>
-      <c r="B472" t="s">
-        <v>993</v>
       </c>
       <c r="C472" t="s">
         <v>22</v>
@@ -13531,16 +13522,16 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
+        <v>993</v>
+      </c>
+      <c r="B473" t="s">
         <v>994</v>
-      </c>
-      <c r="B473" t="s">
-        <v>995</v>
       </c>
       <c r="C473" t="s">
         <v>27</v>
       </c>
       <c r="D473" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E473" t="s">
         <v>33</v>
@@ -13548,27 +13539,27 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B474" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C474" t="s">
         <v>63</v>
       </c>
       <c r="D474" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E474" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
+        <v>998</v>
+      </c>
+      <c r="B475" t="s">
         <v>999</v>
-      </c>
-      <c r="B475" t="s">
-        <v>1000</v>
       </c>
       <c r="C475" t="s">
         <v>44</v>
@@ -13582,7 +13573,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C476" t="s">
         <v>22</v>
@@ -13596,10 +13587,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B477" t="s">
         <v>1002</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1003</v>
       </c>
       <c r="C477" t="s">
         <v>6</v>
@@ -13613,10 +13604,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B478" t="s">
         <v>1004</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1005</v>
       </c>
       <c r="C478" t="s">
         <v>14</v>
@@ -13630,10 +13621,10 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B479" t="s">
         <v>1006</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1007</v>
       </c>
       <c r="C479" t="s">
         <v>6</v>
@@ -13647,10 +13638,10 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B480" t="s">
         <v>1008</v>
-      </c>
-      <c r="B480" t="s">
-        <v>1009</v>
       </c>
       <c r="C480" t="s">
         <v>22</v>
@@ -13664,10 +13655,10 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B481" t="s">
         <v>1010</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1011</v>
       </c>
       <c r="C481" t="s">
         <v>6</v>
@@ -13681,7 +13672,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C482" t="s">
         <v>22</v>
@@ -13695,10 +13686,10 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B483" t="s">
         <v>1013</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1014</v>
       </c>
       <c r="C483" t="s">
         <v>22</v>
@@ -13712,10 +13703,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C484" t="s">
         <v>6</v>
@@ -13729,10 +13717,10 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B485" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -13746,7 +13734,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C486" t="s">
         <v>27</v>
@@ -13760,10 +13748,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B487" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C487" t="s">
         <v>44</v>
@@ -13777,10 +13765,10 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B488" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C488" t="s">
         <v>14</v>
@@ -13794,10 +13782,10 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B489" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C489" t="s">
         <v>6</v>
@@ -13811,10 +13799,10 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B490" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C490" t="s">
         <v>44</v>
@@ -13828,7 +13816,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C491" t="s">
         <v>44</v>
@@ -13842,10 +13830,10 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B492" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C492" t="s">
         <v>44</v>
@@ -13859,10 +13847,10 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B493" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C493" t="s">
         <v>34</v>
@@ -13876,7 +13864,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C494" t="s">
         <v>22</v>
@@ -13890,10 +13878,10 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B495" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C495" t="s">
         <v>44</v>
@@ -13907,7 +13895,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C496" t="s">
         <v>22</v>
@@ -13921,10 +13909,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B497" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C497" t="s">
         <v>6</v>
@@ -13938,16 +13926,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B498" t="s">
         <v>1036</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1038</v>
       </c>
       <c r="C498" t="s">
         <v>6</v>
       </c>
       <c r="D498" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E498" t="s">
         <v>219</v>
@@ -13955,10 +13943,10 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B499" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C499" t="s">
         <v>34</v>
@@ -13972,30 +13960,30 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B500" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C500" t="s">
         <v>34</v>
       </c>
       <c r="D500" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E500" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C501" t="s">
         <v>14</v>
       </c>
       <c r="D501" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E501" t="s">
         <v>75</v>
@@ -14003,10 +13991,10 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B502" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C502" t="s">
         <v>22</v>
@@ -14020,16 +14008,16 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B503" t="s">
         <v>1047</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1049</v>
       </c>
       <c r="C503" t="s">
         <v>6</v>
       </c>
       <c r="D503" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E503" t="s">
         <v>233</v>
@@ -14037,10 +14025,10 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B504" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C504" t="s">
         <v>6</v>
@@ -14054,10 +14042,10 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B505" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C505" t="s">
         <v>34</v>
@@ -14071,16 +14059,16 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B506" t="s">
         <v>1054</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1056</v>
       </c>
       <c r="C506" t="s">
         <v>6</v>
       </c>
       <c r="D506" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E506" t="s">
         <v>5</v>
@@ -14088,10 +14076,10 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B507" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C507" t="s">
         <v>44</v>
@@ -14105,10 +14093,10 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B508" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C508" t="s">
         <v>6</v>
@@ -14122,7 +14110,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C509" t="s">
         <v>22</v>
@@ -14136,10 +14124,10 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B510" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C510" t="s">
         <v>18</v>
@@ -14153,10 +14141,10 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B511" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C511" t="s">
         <v>63</v>
@@ -14170,10 +14158,10 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B512" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C512" t="s">
         <v>14</v>
@@ -14187,10 +14175,10 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B513" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C513" t="s">
         <v>44</v>
@@ -14204,16 +14192,16 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B514" t="s">
         <v>1069</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1071</v>
       </c>
       <c r="C514" t="s">
         <v>44</v>
       </c>
       <c r="D514" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
@@ -14221,10 +14209,10 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B515" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C515" t="s">
         <v>22</v>
@@ -14238,10 +14226,10 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B516" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C516" t="s">
         <v>18</v>
@@ -14255,16 +14243,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B517" t="s">
         <v>1076</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1078</v>
       </c>
       <c r="C517" t="s">
         <v>22</v>
       </c>
       <c r="D517" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E517" t="s">
         <v>351</v>
@@ -14272,13 +14260,13 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C518" t="s">
         <v>14</v>
       </c>
       <c r="D518" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E518" t="s">
         <v>75</v>
@@ -14286,10 +14274,10 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B519" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C519" t="s">
         <v>63</v>
@@ -14303,10 +14291,10 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B520" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C520" t="s">
         <v>6</v>
@@ -14320,10 +14308,10 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B521" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C521" t="s">
         <v>14</v>
@@ -14337,10 +14325,10 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B522" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C522" t="s">
         <v>34</v>
@@ -14354,10 +14342,10 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B523" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C523" t="s">
         <v>14</v>
@@ -14371,10 +14359,10 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B524" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C524" t="s">
         <v>6</v>
@@ -14388,33 +14376,33 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B525" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C525" t="s">
         <v>44</v>
       </c>
       <c r="D525" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E525" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B526" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C526" t="s">
         <v>34</v>
       </c>
       <c r="D526" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E526" t="s">
         <v>219</v>
@@ -14422,10 +14410,10 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B527" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C527" t="s">
         <v>63</v>
@@ -14439,13 +14427,13 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C528" t="s">
         <v>22</v>
       </c>
       <c r="D528" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E528" t="s">
         <v>9</v>
@@ -14453,10 +14441,10 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B529" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C529" t="s">
         <v>63</v>
@@ -14470,10 +14458,10 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B530" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C530" t="s">
         <v>6</v>
@@ -14487,10 +14475,10 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B531" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C531" t="s">
         <v>34</v>
@@ -14504,16 +14492,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B532" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C532" t="s">
         <v>44</v>
       </c>
       <c r="D532" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E532" t="s">
         <v>113</v>
@@ -14521,10 +14509,10 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B533" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C533" t="s">
         <v>34</v>
@@ -14538,10 +14526,10 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B534" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C534" t="s">
         <v>14</v>
@@ -14555,10 +14543,10 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B535" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C535" t="s">
         <v>22</v>
@@ -14572,10 +14560,10 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B536" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C536" t="s">
         <v>22</v>
@@ -14589,10 +14577,10 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B537" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C537" t="s">
         <v>6</v>
@@ -14606,27 +14594,27 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B538" t="s">
         <v>1115</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1117</v>
       </c>
       <c r="C538" t="s">
         <v>6</v>
       </c>
       <c r="D538" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E538" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B539" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
@@ -14640,16 +14628,16 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B540" t="s">
         <v>1120</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1122</v>
       </c>
       <c r="C540" t="s">
         <v>63</v>
       </c>
       <c r="D540" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E540" t="s">
         <v>26</v>
@@ -14657,7 +14645,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C541" t="s">
         <v>18</v>
@@ -14671,10 +14659,10 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B542" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C542" t="s">
         <v>22</v>
@@ -14688,10 +14676,10 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B543" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C543" t="s">
         <v>22</v>
@@ -14705,10 +14693,10 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B544" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C544" t="s">
         <v>44</v>
@@ -14722,10 +14710,10 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B545" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C545" t="s">
         <v>22</v>
@@ -14739,10 +14727,10 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B546" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C546" t="s">
         <v>22</v>
@@ -14756,16 +14744,16 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B547" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C547" t="s">
         <v>6</v>
       </c>
       <c r="D547" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E547" t="s">
         <v>219</v>
@@ -14773,16 +14761,16 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B548" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C548" t="s">
         <v>6</v>
       </c>
       <c r="D548" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E548" t="s">
         <v>50</v>
@@ -14790,13 +14778,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C549" t="s">
         <v>6</v>
       </c>
       <c r="D549" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E549" t="s">
         <v>172</v>
@@ -14804,10 +14792,10 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B550" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C550" t="s">
         <v>27</v>
@@ -14821,10 +14809,10 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B551" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C551" t="s">
         <v>44</v>
@@ -14838,16 +14826,16 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B552" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C552" t="s">
         <v>6</v>
       </c>
       <c r="D552" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E552" t="s">
         <v>219</v>
@@ -14855,10 +14843,10 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B553" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -14872,10 +14860,10 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B554" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C554" t="s">
         <v>14</v>
@@ -14889,7 +14877,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C555" t="s">
         <v>14</v>
@@ -14903,10 +14891,10 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B556" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C556" t="s">
         <v>6</v>
@@ -14920,10 +14908,10 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B557" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C557" t="s">
         <v>6</v>
@@ -14937,16 +14925,16 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B558" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C558" t="s">
         <v>44</v>
       </c>
       <c r="D558" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E558" t="s">
         <v>123</v>
@@ -14954,10 +14942,10 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B559" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C559" t="s">
         <v>27</v>
@@ -14971,10 +14959,10 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B560" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C560" t="s">
         <v>6</v>
@@ -14988,10 +14976,10 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B561" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -15005,10 +14993,10 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B562" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C562" t="s">
         <v>18</v>
@@ -15022,16 +15010,16 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B563" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C563" t="s">
         <v>22</v>
       </c>
       <c r="D563" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E563" t="s">
         <v>189</v>
@@ -15039,16 +15027,16 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B564" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C564" t="s">
         <v>63</v>
       </c>
       <c r="D564" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E564" t="s">
         <v>26</v>
@@ -15056,10 +15044,10 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B565" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C565" t="s">
         <v>18</v>
@@ -15073,10 +15061,10 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B566" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C566" t="s">
         <v>34</v>
@@ -15090,16 +15078,16 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B567" t="s">
         <v>1167</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1169</v>
       </c>
       <c r="C567" t="s">
         <v>6</v>
       </c>
       <c r="D567" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E567" t="s">
         <v>243</v>
@@ -15107,16 +15095,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B568" t="s">
         <v>1170</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1172</v>
       </c>
       <c r="C568" t="s">
         <v>34</v>
       </c>
       <c r="D568" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E568" t="s">
         <v>26</v>
@@ -15124,10 +15112,10 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B569" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C569" t="s">
         <v>44</v>
@@ -15141,10 +15129,10 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B570" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C570" t="s">
         <v>18</v>
@@ -15158,16 +15146,16 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B571" t="s">
         <v>1176</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1178</v>
       </c>
       <c r="C571" t="s">
         <v>44</v>
       </c>
       <c r="D571" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E571" t="s">
         <v>40</v>
@@ -15175,10 +15163,10 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B572" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C572" t="s">
         <v>44</v>
@@ -15192,10 +15180,10 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B573" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C573" t="s">
         <v>34</v>
@@ -15209,10 +15197,10 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B574" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C574" t="s">
         <v>18</v>
@@ -15226,10 +15214,10 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B575" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C575" t="s">
         <v>22</v>
@@ -15243,10 +15231,10 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B576" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C576" t="s">
         <v>22</v>
@@ -15260,16 +15248,16 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B577" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C577" t="s">
         <v>63</v>
       </c>
       <c r="D577" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E577" t="s">
         <v>26</v>
@@ -15277,10 +15265,10 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B578" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C578" t="s">
         <v>44</v>
@@ -15294,10 +15282,10 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B579" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C579" t="s">
         <v>22</v>
@@ -15311,10 +15299,10 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B580" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C580" t="s">
         <v>14</v>
@@ -15328,10 +15316,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B581" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C581" t="s">
         <v>27</v>
@@ -15345,10 +15333,10 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B582" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C582" t="s">
         <v>27</v>
@@ -15362,13 +15350,13 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C583" t="s">
         <v>34</v>
       </c>
       <c r="D583" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E583" t="s">
         <v>40</v>
@@ -15376,16 +15364,16 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B584" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C584" t="s">
         <v>34</v>
       </c>
       <c r="D584" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E584" t="s">
         <v>117</v>
@@ -15393,7 +15381,7 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C585" t="s">
         <v>18</v>
@@ -15407,10 +15395,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B586" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C586" t="s">
         <v>34</v>
@@ -15424,10 +15412,10 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B587" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C587" t="s">
         <v>14</v>
@@ -15441,16 +15429,16 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B588" t="s">
         <v>1207</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1209</v>
       </c>
       <c r="C588" t="s">
         <v>27</v>
       </c>
       <c r="D588" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E588" t="s">
         <v>123</v>
@@ -15458,10 +15446,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B589" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C589" t="s">
         <v>22</v>
@@ -15475,10 +15463,10 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B590" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C590" t="s">
         <v>27</v>
@@ -15492,10 +15480,10 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B591" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C591" t="s">
         <v>6</v>
@@ -15509,10 +15497,10 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B592" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C592" t="s">
         <v>22</v>
@@ -15526,10 +15514,10 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B593" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C593" t="s">
         <v>6</v>
@@ -15543,10 +15531,10 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B594" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C594" t="s">
         <v>22</v>
@@ -15560,10 +15548,10 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B595" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C595" t="s">
         <v>22</v>
@@ -15577,10 +15565,10 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B596" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C596" t="s">
         <v>18</v>
@@ -15594,27 +15582,27 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B597" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C597" t="s">
         <v>6</v>
       </c>
       <c r="D597" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E597" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B598" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C598" t="s">
         <v>27</v>
@@ -15628,10 +15616,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B599" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C599" t="s">
         <v>22</v>
@@ -15645,10 +15633,10 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B600" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C600" t="s">
         <v>34</v>
@@ -15662,10 +15650,10 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B601" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C601" t="s">
         <v>22</v>
@@ -15679,16 +15667,16 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B602" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C602" t="s">
         <v>22</v>
       </c>
       <c r="D602" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E602" t="s">
         <v>189</v>
@@ -15696,10 +15684,10 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B603" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C603" t="s">
         <v>63</v>
@@ -15713,7 +15701,7 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C604" t="s">
         <v>6</v>
@@ -15727,27 +15715,27 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B605" t="s">
         <v>1237</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1239</v>
       </c>
       <c r="C605" t="s">
         <v>22</v>
       </c>
       <c r="D605" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E605" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B606" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C606" t="s">
         <v>6</v>
@@ -15761,10 +15749,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B607" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C607" t="s">
         <v>63</v>
@@ -15778,10 +15766,10 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B608" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C608" t="s">
         <v>6</v>
@@ -15795,10 +15783,10 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B609" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C609" t="s">
         <v>44</v>
@@ -15812,10 +15800,10 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B610" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C610" t="s">
         <v>6</v>
@@ -15829,7 +15817,7 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C611" t="s">
         <v>22</v>
@@ -15843,10 +15831,10 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B612" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C612" t="s">
         <v>6</v>
@@ -15860,10 +15848,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B613" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C613" t="s">
         <v>34</v>
@@ -15877,7 +15865,7 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C614" t="s">
         <v>6</v>
@@ -15891,10 +15879,10 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B615" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C615" t="s">
         <v>44</v>
@@ -15908,33 +15896,33 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B616" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C616" t="s">
         <v>44</v>
       </c>
       <c r="D616" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E616" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B617" t="s">
         <v>1260</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1262</v>
       </c>
       <c r="C617" t="s">
         <v>34</v>
       </c>
       <c r="D617" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E617" t="s">
         <v>60</v>
@@ -15942,13 +15930,13 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C618" t="s">
         <v>22</v>
       </c>
       <c r="D618" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E618" t="s">
         <v>189</v>
@@ -15956,10 +15944,10 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B619" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C619" t="s">
         <v>6</v>
@@ -15973,7 +15961,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C620" t="s">
         <v>22</v>
@@ -15987,14 +15975,14 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B621" s="2"/>
       <c r="C621" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>172</v>
@@ -16002,10 +15990,10 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B622" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C622" t="s">
         <v>6</v>
@@ -16019,13 +16007,13 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C623" t="s">
         <v>14</v>
       </c>
       <c r="D623" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E623" t="s">
         <v>243</v>
@@ -16033,10 +16021,10 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B624" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C624" t="s">
         <v>22</v>
@@ -16050,16 +16038,16 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B625" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C625" t="s">
         <v>6</v>
       </c>
       <c r="D625" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E625" t="s">
         <v>50</v>
@@ -16067,7 +16055,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C626" t="s">
         <v>27</v>
@@ -16081,10 +16069,10 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B627" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C627" t="s">
         <v>22</v>
@@ -16098,10 +16086,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B628" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C628" t="s">
         <v>34</v>
@@ -16115,16 +16103,16 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B629" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C629" t="s">
         <v>6</v>
       </c>
       <c r="D629" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E629" t="s">
         <v>219</v>
@@ -16132,16 +16120,16 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B630" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C630" t="s">
         <v>6</v>
       </c>
       <c r="D630" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E630" t="s">
         <v>243</v>
@@ -16149,10 +16137,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B631" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C631" t="s">
         <v>44</v>
@@ -16166,16 +16154,16 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B632" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C632" t="s">
         <v>14</v>
       </c>
       <c r="D632" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E632" t="s">
         <v>60</v>
@@ -16183,10 +16171,10 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B633" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C633" t="s">
         <v>22</v>
@@ -16200,10 +16188,10 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B634" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C634" t="s">
         <v>6</v>
@@ -16217,10 +16205,10 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B635" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C635" t="s">
         <v>27</v>
@@ -16234,16 +16222,16 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B636" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C636" t="s">
         <v>22</v>
       </c>
       <c r="D636" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E636" t="s">
         <v>9</v>
@@ -16251,10 +16239,10 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B637" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C637" t="s">
         <v>14</v>
@@ -16268,16 +16256,16 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B638" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C638" t="s">
         <v>6</v>
       </c>
       <c r="D638" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E638" t="s">
         <v>172</v>
@@ -16285,10 +16273,10 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B639" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C639" t="s">
         <v>44</v>
@@ -16302,16 +16290,16 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B640" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C640" t="s">
         <v>27</v>
       </c>
       <c r="D640" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E640" t="s">
         <v>50</v>
@@ -16319,10 +16307,10 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B641" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C641" t="s">
         <v>34</v>
@@ -16336,10 +16324,10 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B642" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C642" t="s">
         <v>44</v>
@@ -16353,16 +16341,16 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B643" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C643" t="s">
         <v>6</v>
       </c>
       <c r="D643" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E643" t="s">
         <v>243</v>
@@ -16370,7 +16358,7 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C644" t="s">
         <v>6</v>
@@ -16384,10 +16372,10 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B645" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C645" t="s">
         <v>27</v>
@@ -16401,10 +16389,10 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B646" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C646" t="s">
         <v>6</v>
@@ -16418,10 +16406,10 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B647" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C647" t="s">
         <v>22</v>
@@ -16435,10 +16423,10 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B648" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C648" t="s">
         <v>22</v>
@@ -16452,10 +16440,10 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B649" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C649" t="s">
         <v>18</v>
@@ -16469,10 +16457,10 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B650" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C650" t="s">
         <v>22</v>
@@ -16486,7 +16474,7 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C651" t="s">
         <v>14</v>
@@ -16500,10 +16488,10 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B652" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C652" t="s">
         <v>22</v>
@@ -16517,10 +16505,10 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B653" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C653" t="s">
         <v>27</v>
@@ -16534,10 +16522,10 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B654" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C654" t="s">
         <v>6</v>
@@ -16551,10 +16539,10 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B655" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C655" t="s">
         <v>6</v>
@@ -16568,10 +16556,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B656" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C656" t="s">
         <v>14</v>
@@ -16585,10 +16573,10 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B657" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C657" t="s">
         <v>22</v>
@@ -16602,10 +16590,10 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B658" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C658" t="s">
         <v>22</v>
@@ -16619,16 +16607,16 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B659" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C659" t="s">
         <v>6</v>
       </c>
       <c r="D659" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E659" t="s">
         <v>50</v>
@@ -16636,10 +16624,10 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B660" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C660" t="s">
         <v>27</v>
@@ -16653,10 +16641,10 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B661" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C661" t="s">
         <v>22</v>
@@ -16670,10 +16658,10 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B662" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C662" t="s">
         <v>44</v>
@@ -16687,10 +16675,10 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B663" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C663" t="s">
         <v>6</v>
@@ -16704,13 +16692,13 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C664" t="s">
         <v>27</v>
       </c>
       <c r="D664" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E664" t="s">
         <v>117</v>
@@ -16718,7 +16706,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C665" t="s">
         <v>27</v>
@@ -16732,16 +16720,16 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B666" t="s">
         <v>1344</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1346</v>
       </c>
       <c r="C666" t="s">
         <v>6</v>
       </c>
       <c r="D666" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E666" t="s">
         <v>233</v>
@@ -16749,16 +16737,16 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B667" t="s">
         <v>1347</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1349</v>
       </c>
       <c r="C667" t="s">
         <v>44</v>
       </c>
       <c r="D667" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E667" t="s">
         <v>83</v>
@@ -16766,33 +16754,33 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B668" t="s">
         <v>1350</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1352</v>
       </c>
       <c r="C668" t="s">
         <v>44</v>
       </c>
       <c r="D668" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E668" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B669" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C669" t="s">
         <v>27</v>
       </c>
       <c r="D669" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E669" t="s">
         <v>219</v>
@@ -16800,10 +16788,10 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B670" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C670" t="s">
         <v>6</v>
@@ -16817,10 +16805,10 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B671" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C671" t="s">
         <v>34</v>
@@ -16834,10 +16822,10 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B672" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C672" t="s">
         <v>18</v>
@@ -16851,10 +16839,10 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B673" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C673" t="s">
         <v>44</v>
@@ -16868,10 +16856,10 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B674" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C674" t="s">
         <v>6</v>
@@ -16885,10 +16873,10 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B675" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C675" t="s">
         <v>44</v>
@@ -16902,10 +16890,10 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B676" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C676" t="s">
         <v>22</v>
@@ -16919,13 +16907,13 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C677" t="s">
         <v>14</v>
       </c>
       <c r="D677" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E677" t="s">
         <v>172</v>
@@ -16933,16 +16921,16 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B678" t="s">
         <v>1368</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1370</v>
       </c>
       <c r="C678" t="s">
         <v>22</v>
       </c>
       <c r="D678" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E678" t="s">
         <v>87</v>
@@ -16950,16 +16938,16 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B679" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C679" t="s">
         <v>63</v>
       </c>
       <c r="D679" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E679" t="s">
         <v>26</v>
@@ -16967,16 +16955,16 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B680" t="s">
         <v>1373</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1375</v>
       </c>
       <c r="C680" t="s">
         <v>34</v>
       </c>
       <c r="D680" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E680" t="s">
         <v>26</v>
@@ -16984,10 +16972,10 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B681" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C681" t="s">
         <v>22</v>
@@ -17001,16 +16989,16 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B682" t="s">
         <v>1377</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1379</v>
       </c>
       <c r="C682" t="s">
         <v>44</v>
       </c>
       <c r="D682" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E682" t="s">
         <v>117</v>
@@ -17018,16 +17006,16 @@
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B683" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C683" t="s">
         <v>6</v>
       </c>
       <c r="D683" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E683" t="s">
         <v>56</v>
@@ -17035,10 +17023,10 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B684" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C684" t="s">
         <v>6</v>
@@ -17052,16 +17040,16 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B685" t="s">
         <v>1383</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1385</v>
       </c>
       <c r="C685" t="s">
         <v>34</v>
       </c>
       <c r="D685" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E685" t="s">
         <v>189</v>
@@ -17069,16 +17057,16 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B686" t="s">
         <v>1386</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1388</v>
       </c>
       <c r="C686" t="s">
         <v>22</v>
       </c>
       <c r="D686" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E686" t="s">
         <v>79</v>
@@ -17086,10 +17074,10 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B687" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C687" t="s">
         <v>18</v>
@@ -17103,16 +17091,16 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B688" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C688" t="s">
         <v>27</v>
       </c>
       <c r="D688" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E688" t="s">
         <v>33</v>
@@ -17120,10 +17108,10 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B689" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C689" t="s">
         <v>27</v>
@@ -17137,10 +17125,10 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B690" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C690" t="s">
         <v>34</v>
@@ -17154,16 +17142,16 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B691" t="s">
         <v>1395</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1397</v>
       </c>
       <c r="C691" t="s">
         <v>44</v>
       </c>
       <c r="D691" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E691" t="s">
         <v>79</v>
@@ -17171,10 +17159,10 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B692" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C692" t="s">
         <v>44</v>
@@ -17188,13 +17176,13 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C693" t="s">
         <v>27</v>
       </c>
       <c r="D693" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E693" t="s">
         <v>75</v>
@@ -17202,10 +17190,10 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B694" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C694" t="s">
         <v>6</v>
@@ -17219,16 +17207,16 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B695" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C695" t="s">
         <v>44</v>
       </c>
       <c r="D695" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E695" t="s">
         <v>79</v>
@@ -17236,16 +17224,16 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B696" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C696" t="s">
         <v>18</v>
       </c>
       <c r="D696" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E696" t="s">
         <v>189</v>
@@ -17253,16 +17241,16 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B697" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C697" t="s">
         <v>63</v>
       </c>
       <c r="D697" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E697" t="s">
         <v>26</v>
@@ -17270,16 +17258,16 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B698" t="s">
         <v>1410</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1412</v>
       </c>
       <c r="C698" t="s">
         <v>63</v>
       </c>
       <c r="D698" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E698" t="s">
         <v>113</v>
@@ -17287,16 +17275,16 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B699" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C699" t="s">
         <v>6</v>
       </c>
       <c r="D699" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E699" t="s">
         <v>101</v>
@@ -17304,30 +17292,30 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B700" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C700" t="s">
         <v>6</v>
       </c>
       <c r="D700" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E700" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C701" t="s">
         <v>22</v>
       </c>
       <c r="D701" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E701" t="s">
         <v>9</v>
@@ -17335,10 +17323,10 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B702" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C702" t="s">
         <v>44</v>
@@ -17352,13 +17340,13 @@
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C703" t="s">
         <v>22</v>
       </c>
       <c r="D703" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E703" t="s">
         <v>189</v>
@@ -17366,10 +17354,10 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B704" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C704" t="s">
         <v>34</v>
@@ -17383,16 +17371,16 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B705" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C705" t="s">
         <v>27</v>
       </c>
       <c r="D705" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E705" t="s">
         <v>219</v>
@@ -17400,10 +17388,10 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B706" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C706" t="s">
         <v>44</v>
@@ -17417,10 +17405,10 @@
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B707" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C707" t="s">
         <v>6</v>
@@ -17434,10 +17422,10 @@
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B708" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C708" t="s">
         <v>6</v>
@@ -17451,16 +17439,16 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B709" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C709" t="s">
         <v>27</v>
       </c>
       <c r="D709" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E709" t="s">
         <v>219</v>
@@ -17468,10 +17456,10 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B710" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C710" t="s">
         <v>18</v>
@@ -17485,16 +17473,16 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B711" t="s">
         <v>1434</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1436</v>
       </c>
       <c r="C711" t="s">
         <v>63</v>
       </c>
       <c r="D711" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E711" t="s">
         <v>310</v>
@@ -17502,10 +17490,10 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B712" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C712" t="s">
         <v>6</v>
@@ -17519,10 +17507,10 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B713" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C713" t="s">
         <v>6</v>
@@ -17536,16 +17524,16 @@
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B714" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C714" t="s">
         <v>6</v>
       </c>
       <c r="D714" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E714" t="s">
         <v>50</v>
@@ -17553,10 +17541,10 @@
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B715" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C715" t="s">
         <v>22</v>
@@ -17570,10 +17558,10 @@
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B716" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C716" t="s">
         <v>27</v>
@@ -17587,10 +17575,10 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B717" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C717" t="s">
         <v>6</v>
@@ -17604,16 +17592,16 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B718" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C718" t="s">
         <v>27</v>
       </c>
       <c r="D718" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E718" t="s">
         <v>50</v>
@@ -17621,16 +17609,16 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B719" t="s">
         <v>1450</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1452</v>
       </c>
       <c r="C719" t="s">
         <v>6</v>
       </c>
       <c r="D719" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E719" t="s">
         <v>113</v>
@@ -17638,10 +17626,10 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B720" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C720" t="s">
         <v>14</v>
@@ -17655,7 +17643,7 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C721" t="s">
         <v>14</v>
@@ -17669,7 +17657,7 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C722" t="s">
         <v>6</v>
@@ -17683,13 +17671,13 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C723" t="s">
         <v>34</v>
       </c>
       <c r="D723" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E723" t="s">
         <v>189</v>
@@ -17697,7 +17685,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C724" t="s">
         <v>6</v>
@@ -17711,16 +17699,16 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B725" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C725" t="s">
         <v>6</v>
       </c>
       <c r="D725" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E725" t="s">
         <v>101</v>
@@ -17728,10 +17716,10 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B726" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C726" t="s">
         <v>6</v>
@@ -17745,27 +17733,27 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B727" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C727" t="s">
         <v>6</v>
       </c>
       <c r="D727" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E727" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B728" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C728" t="s">
         <v>27</v>
@@ -17779,10 +17767,10 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B729" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C729" t="s">
         <v>22</v>
@@ -17796,10 +17784,10 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B730" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C730" t="s">
         <v>34</v>
@@ -17813,16 +17801,16 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B731" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C731" t="s">
         <v>44</v>
       </c>
       <c r="D731" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E731" t="s">
         <v>40</v>
@@ -17830,16 +17818,16 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B732" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C732" t="s">
         <v>22</v>
       </c>
       <c r="D732" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E732" t="s">
         <v>9</v>
@@ -17847,10 +17835,10 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B733" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C733" t="s">
         <v>44</v>
@@ -17864,7 +17852,7 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C734" t="s">
         <v>6</v>
@@ -17878,16 +17866,16 @@
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B735" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C735" t="s">
         <v>27</v>
       </c>
       <c r="D735" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E735" t="s">
         <v>219</v>
@@ -17895,10 +17883,10 @@
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B736" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C736" t="s">
         <v>27</v>
@@ -17912,10 +17900,10 @@
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B737" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C737" t="s">
         <v>18</v>
@@ -17929,10 +17917,10 @@
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B738" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C738" t="s">
         <v>18</v>
@@ -17946,7 +17934,7 @@
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C739" t="s">
         <v>6</v>
@@ -17960,16 +17948,16 @@
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B740" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C740" t="s">
         <v>34</v>
       </c>
       <c r="D740" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E740" t="s">
         <v>56</v>
@@ -17977,16 +17965,16 @@
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B741" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C741" t="s">
         <v>6</v>
       </c>
       <c r="D741" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E741" t="s">
         <v>219</v>
@@ -17994,16 +17982,16 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B742" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C742" t="s">
         <v>27</v>
       </c>
       <c r="D742" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E742" t="s">
         <v>56</v>
@@ -18011,7 +17999,7 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C743" t="s">
         <v>18</v>
@@ -18025,10 +18013,10 @@
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B744" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C744" t="s">
         <v>27</v>
@@ -18042,10 +18030,10 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B745" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C745" t="s">
         <v>6</v>
@@ -18059,10 +18047,10 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B746" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C746" t="s">
         <v>22</v>
@@ -18076,16 +18064,16 @@
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B747" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C747" t="s">
         <v>6</v>
       </c>
       <c r="D747" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E747" t="s">
         <v>243</v>
@@ -18093,10 +18081,10 @@
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B748" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C748" t="s">
         <v>14</v>
@@ -18110,16 +18098,16 @@
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B749" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C749" t="s">
         <v>6</v>
       </c>
       <c r="D749" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E749" t="s">
         <v>233</v>

--- a/data/list_meps_2019.xlsx
+++ b/data/list_meps_2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1621">
   <si>
     <t>name</t>
   </si>
@@ -4879,6 +4879,9 @@
   </si>
   <si>
     <t>EvinIncir</t>
+  </si>
+  <si>
+    <t>MazalyAguilar</t>
   </si>
 </sst>
 </file>
@@ -5729,8 +5732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="B484" sqref="B484"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5845,6 +5848,9 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
+      <c r="B7" t="s">
+        <v>1620</v>
+      </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
